--- a/backdata/0426FCT and Local Name.xlsx
+++ b/backdata/0426FCT and Local Name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\webApp\ifna_pwa02\backdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53709D9-EAA8-46E9-94E8-0133E8E36063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1C3C2-CF05-4FDA-A814-F3146B7827DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21792" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="21792" windowHeight="11100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fct2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="438">
   <si>
     <t>FCT_id</t>
   </si>
@@ -1400,10 +1400,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ETH</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>FCT_grp</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -2506,7 +2502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
@@ -34152,7 +34148,7 @@
         <v>350</v>
       </c>
       <c r="AM1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.85">
@@ -65617,8 +65613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -65646,8 +65642,8 @@
       <c r="A2">
         <v>831</v>
       </c>
-      <c r="B2" t="s">
-        <v>437</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -65660,8 +65656,8 @@
       <c r="A3">
         <v>835</v>
       </c>
-      <c r="B3" t="s">
-        <v>437</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>341</v>
@@ -65674,8 +65670,8 @@
       <c r="A4">
         <v>800</v>
       </c>
-      <c r="B4" t="s">
-        <v>437</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>341</v>
@@ -65688,8 +65684,8 @@
       <c r="A5">
         <v>804</v>
       </c>
-      <c r="B5" t="s">
-        <v>437</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>343</v>
@@ -65702,8 +65698,8 @@
       <c r="A6">
         <v>819</v>
       </c>
-      <c r="B6" t="s">
-        <v>437</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>342</v>
@@ -65716,8 +65712,8 @@
       <c r="A7">
         <v>820</v>
       </c>
-      <c r="B7" t="s">
-        <v>437</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>342</v>
@@ -65730,8 +65726,8 @@
       <c r="A8">
         <v>834</v>
       </c>
-      <c r="B8" t="s">
-        <v>437</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>341</v>
@@ -65744,8 +65740,8 @@
       <c r="A9">
         <v>801</v>
       </c>
-      <c r="B9" t="s">
-        <v>437</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>346</v>
@@ -65758,8 +65754,8 @@
       <c r="A10">
         <v>806</v>
       </c>
-      <c r="B10" t="s">
-        <v>437</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>347</v>
@@ -65772,8 +65768,8 @@
       <c r="A11">
         <v>809</v>
       </c>
-      <c r="B11" t="s">
-        <v>437</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>347</v>
@@ -65786,8 +65782,8 @@
       <c r="A12">
         <v>810</v>
       </c>
-      <c r="B12" t="s">
-        <v>437</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>346</v>
@@ -65800,8 +65796,8 @@
       <c r="A13">
         <v>825</v>
       </c>
-      <c r="B13" t="s">
-        <v>437</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>346</v>
@@ -65814,8 +65810,8 @@
       <c r="A14">
         <v>830</v>
       </c>
-      <c r="B14" t="s">
-        <v>437</v>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>346</v>
@@ -65828,8 +65824,8 @@
       <c r="A15">
         <v>807</v>
       </c>
-      <c r="B15" t="s">
-        <v>437</v>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -65842,8 +65838,8 @@
       <c r="A16">
         <v>812</v>
       </c>
-      <c r="B16" t="s">
-        <v>437</v>
+      <c r="B16">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>342</v>
@@ -65856,8 +65852,8 @@
       <c r="A17">
         <v>813</v>
       </c>
-      <c r="B17" t="s">
-        <v>437</v>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>342</v>
@@ -65870,8 +65866,8 @@
       <c r="A18">
         <v>822</v>
       </c>
-      <c r="B18" t="s">
-        <v>437</v>
+      <c r="B18">
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>346</v>
@@ -65884,8 +65880,8 @@
       <c r="A19">
         <v>826</v>
       </c>
-      <c r="B19" t="s">
-        <v>437</v>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>342</v>
@@ -65898,8 +65894,8 @@
       <c r="A20">
         <v>827</v>
       </c>
-      <c r="B20" t="s">
-        <v>437</v>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>342</v>
@@ -65912,8 +65908,8 @@
       <c r="A21">
         <v>828</v>
       </c>
-      <c r="B21" t="s">
-        <v>437</v>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>341</v>
@@ -65926,8 +65922,8 @@
       <c r="A22">
         <v>811</v>
       </c>
-      <c r="B22" t="s">
-        <v>437</v>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>342</v>
@@ -65940,8 +65936,8 @@
       <c r="A23">
         <v>817</v>
       </c>
-      <c r="B23" t="s">
-        <v>437</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>344</v>
@@ -65954,8 +65950,8 @@
       <c r="A24">
         <v>821</v>
       </c>
-      <c r="B24" t="s">
-        <v>437</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>347</v>
@@ -65968,8 +65964,8 @@
       <c r="A25">
         <v>829</v>
       </c>
-      <c r="B25" t="s">
-        <v>437</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>342</v>
@@ -65982,8 +65978,8 @@
       <c r="A26">
         <v>832</v>
       </c>
-      <c r="B26" t="s">
-        <v>437</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>347</v>
@@ -65996,8 +65992,8 @@
       <c r="A27">
         <v>833</v>
       </c>
-      <c r="B27" t="s">
-        <v>437</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>346</v>
@@ -66010,8 +66006,8 @@
       <c r="A28">
         <v>836</v>
       </c>
-      <c r="B28" t="s">
-        <v>437</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>342</v>
@@ -66024,8 +66020,8 @@
       <c r="A29">
         <v>814</v>
       </c>
-      <c r="B29" t="s">
-        <v>437</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>341</v>
@@ -66038,8 +66034,8 @@
       <c r="A30">
         <v>818</v>
       </c>
-      <c r="B30" t="s">
-        <v>437</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>342</v>
@@ -66052,8 +66048,8 @@
       <c r="A31">
         <v>824</v>
       </c>
-      <c r="B31" t="s">
-        <v>437</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>342</v>
@@ -66066,8 +66062,8 @@
       <c r="A32">
         <v>816</v>
       </c>
-      <c r="B32" t="s">
-        <v>437</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
@@ -66080,8 +66076,8 @@
       <c r="A33">
         <v>805</v>
       </c>
-      <c r="B33" t="s">
-        <v>437</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -66094,8 +66090,8 @@
       <c r="A34">
         <v>808</v>
       </c>
-      <c r="B34" t="s">
-        <v>437</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -66108,8 +66104,8 @@
       <c r="A35">
         <v>803</v>
       </c>
-      <c r="B35" t="s">
-        <v>437</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>343</v>
@@ -66122,8 +66118,8 @@
       <c r="A36">
         <v>823</v>
       </c>
-      <c r="B36" t="s">
-        <v>437</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>342</v>
@@ -66136,8 +66132,8 @@
       <c r="A37">
         <v>837</v>
       </c>
-      <c r="B37" t="s">
-        <v>437</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>343</v>
@@ -66150,8 +66146,8 @@
       <c r="A38">
         <v>802</v>
       </c>
-      <c r="B38" t="s">
-        <v>437</v>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>341</v>
@@ -66164,8 +66160,8 @@
       <c r="A39">
         <v>838</v>
       </c>
-      <c r="B39" t="s">
-        <v>437</v>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>343</v>
@@ -66178,8 +66174,8 @@
       <c r="A40">
         <v>234</v>
       </c>
-      <c r="B40" t="s">
-        <v>437</v>
+      <c r="B40">
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>348</v>
@@ -66192,8 +66188,8 @@
       <c r="A41">
         <v>236</v>
       </c>
-      <c r="B41" t="s">
-        <v>437</v>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>348</v>
@@ -66206,8 +66202,8 @@
       <c r="A42">
         <v>247</v>
       </c>
-      <c r="B42" t="s">
-        <v>437</v>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>348</v>
@@ -66220,8 +66216,8 @@
       <c r="A43">
         <v>197</v>
       </c>
-      <c r="B43" t="s">
-        <v>437</v>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -66234,8 +66230,8 @@
       <c r="A44">
         <v>156</v>
       </c>
-      <c r="B44" t="s">
-        <v>437</v>
+      <c r="B44">
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>348</v>
@@ -66248,8 +66244,8 @@
       <c r="A45">
         <v>190</v>
       </c>
-      <c r="B45" t="s">
-        <v>437</v>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>348</v>
@@ -66262,8 +66258,8 @@
       <c r="A46">
         <v>201</v>
       </c>
-      <c r="B46" t="s">
-        <v>437</v>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>348</v>
@@ -66276,8 +66272,8 @@
       <c r="A47">
         <v>222</v>
       </c>
-      <c r="B47" t="s">
-        <v>437</v>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>346</v>
@@ -66290,8 +66286,8 @@
       <c r="A48">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
-        <v>437</v>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>346</v>
@@ -66304,8 +66300,8 @@
       <c r="A49">
         <v>168</v>
       </c>
-      <c r="B49" t="s">
-        <v>437</v>
+      <c r="B49">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>346</v>
@@ -66318,8 +66314,8 @@
       <c r="A50">
         <v>171</v>
       </c>
-      <c r="B50" t="s">
-        <v>437</v>
+      <c r="B50">
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>346</v>
@@ -66332,8 +66328,8 @@
       <c r="A51">
         <v>199</v>
       </c>
-      <c r="B51" t="s">
-        <v>437</v>
+      <c r="B51">
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>346</v>
@@ -66346,8 +66342,8 @@
       <c r="A52">
         <v>229</v>
       </c>
-      <c r="B52" t="s">
-        <v>437</v>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>346</v>
@@ -66360,8 +66356,8 @@
       <c r="A53">
         <v>233</v>
       </c>
-      <c r="B53" t="s">
-        <v>437</v>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -66374,8 +66370,8 @@
       <c r="A54">
         <v>235</v>
       </c>
-      <c r="B54" t="s">
-        <v>437</v>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>346</v>
@@ -66388,8 +66384,8 @@
       <c r="A55">
         <v>165</v>
       </c>
-      <c r="B55" t="s">
-        <v>437</v>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>346</v>
@@ -66402,8 +66398,8 @@
       <c r="A56">
         <v>241</v>
       </c>
-      <c r="B56" t="s">
-        <v>437</v>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>346</v>
@@ -66416,8 +66412,8 @@
       <c r="A57">
         <v>245</v>
       </c>
-      <c r="B57" t="s">
-        <v>437</v>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>346</v>
@@ -66430,8 +66426,8 @@
       <c r="A58">
         <v>237</v>
       </c>
-      <c r="B58" t="s">
-        <v>437</v>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>346</v>
@@ -66444,8 +66440,8 @@
       <c r="A59">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
-        <v>437</v>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>346</v>
@@ -66458,8 +66454,8 @@
       <c r="A60">
         <v>134</v>
       </c>
-      <c r="B60" t="s">
-        <v>437</v>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>342</v>
@@ -66472,8 +66468,8 @@
       <c r="A61">
         <v>272</v>
       </c>
-      <c r="B61" t="s">
-        <v>437</v>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>342</v>
@@ -66486,8 +66482,8 @@
       <c r="A62">
         <v>276</v>
       </c>
-      <c r="B62" t="s">
-        <v>437</v>
+      <c r="B62">
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>342</v>
@@ -66500,8 +66496,8 @@
       <c r="A63">
         <v>140</v>
       </c>
-      <c r="B63" t="s">
-        <v>437</v>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>342</v>
@@ -66514,8 +66510,8 @@
       <c r="A64">
         <v>118</v>
       </c>
-      <c r="B64" t="s">
-        <v>437</v>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>342</v>
@@ -66528,8 +66524,8 @@
       <c r="A65">
         <v>52</v>
       </c>
-      <c r="B65" t="s">
-        <v>437</v>
+      <c r="B65">
+        <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>341</v>
@@ -66542,8 +66538,8 @@
       <c r="A66">
         <v>36</v>
       </c>
-      <c r="B66" t="s">
-        <v>437</v>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>341</v>
@@ -66556,8 +66552,8 @@
       <c r="A67">
         <v>74</v>
       </c>
-      <c r="B67" t="s">
-        <v>437</v>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>341</v>
@@ -66570,8 +66566,8 @@
       <c r="A68">
         <v>83</v>
       </c>
-      <c r="B68" t="s">
-        <v>437</v>
+      <c r="B68">
+        <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>341</v>
@@ -66584,8 +66580,8 @@
       <c r="A69">
         <v>14</v>
       </c>
-      <c r="B69" t="s">
-        <v>437</v>
+      <c r="B69">
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>341</v>
@@ -66598,8 +66594,8 @@
       <c r="A70">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
-        <v>437</v>
+      <c r="B70">
+        <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>341</v>
@@ -66612,8 +66608,8 @@
       <c r="A71">
         <v>96</v>
       </c>
-      <c r="B71" t="s">
-        <v>437</v>
+      <c r="B71">
+        <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>341</v>
@@ -66626,8 +66622,8 @@
       <c r="A72">
         <v>15</v>
       </c>
-      <c r="B72" t="s">
-        <v>437</v>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -66640,8 +66636,8 @@
       <c r="A73">
         <v>40</v>
       </c>
-      <c r="B73" t="s">
-        <v>437</v>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>341</v>
@@ -66654,8 +66650,8 @@
       <c r="A74">
         <v>89</v>
       </c>
-      <c r="B74" t="s">
-        <v>437</v>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74" t="s">
         <v>341</v>
@@ -66668,8 +66664,8 @@
       <c r="A75">
         <v>93</v>
       </c>
-      <c r="B75" t="s">
-        <v>437</v>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>341</v>
@@ -66682,8 +66678,8 @@
       <c r="A76">
         <v>292</v>
       </c>
-      <c r="B76" t="s">
-        <v>437</v>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>344</v>
@@ -66696,8 +66692,8 @@
       <c r="A77">
         <v>294</v>
       </c>
-      <c r="B77" t="s">
-        <v>437</v>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77" t="s">
         <v>344</v>
@@ -66710,8 +66706,8 @@
       <c r="A78">
         <v>336</v>
       </c>
-      <c r="B78" t="s">
-        <v>437</v>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78" t="s">
         <v>344</v>
@@ -66724,8 +66720,8 @@
       <c r="A79">
         <v>326</v>
       </c>
-      <c r="B79" t="s">
-        <v>437</v>
+      <c r="B79">
+        <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>344</v>
@@ -66738,8 +66734,8 @@
       <c r="A80">
         <v>354</v>
       </c>
-      <c r="B80" t="s">
-        <v>437</v>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>345</v>
@@ -66752,8 +66748,8 @@
       <c r="A81">
         <v>405</v>
       </c>
-      <c r="B81" t="s">
-        <v>437</v>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81" t="s">
         <v>343</v>
@@ -66766,8 +66762,8 @@
       <c r="A82">
         <v>409</v>
       </c>
-      <c r="B82" t="s">
-        <v>437</v>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>343</v>
@@ -66780,8 +66776,8 @@
       <c r="A83">
         <v>426</v>
       </c>
-      <c r="B83" t="s">
-        <v>437</v>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>343</v>
@@ -66794,8 +66790,8 @@
       <c r="A84">
         <v>407</v>
       </c>
-      <c r="B84" t="s">
-        <v>437</v>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" t="s">
         <v>343</v>
@@ -66808,8 +66804,8 @@
       <c r="A85">
         <v>412</v>
       </c>
-      <c r="B85" t="s">
-        <v>437</v>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>343</v>
@@ -66822,8 +66818,8 @@
       <c r="A86">
         <v>422</v>
       </c>
-      <c r="B86" t="s">
-        <v>437</v>
+      <c r="B86">
+        <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>343</v>

--- a/backdata/0426FCT and Local Name.xlsx
+++ b/backdata/0426FCT and Local Name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\webApp\ifna_pwa02\backdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1C3C2-CF05-4FDA-A814-F3146B7827DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15599C-C7AF-4084-A0AF-A31E8A76993A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="21792" windowHeight="11100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="439">
   <si>
     <t>FCT_id</t>
   </si>
@@ -1403,6 +1403,10 @@
     <t>FCT_grp</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>ETH</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -65613,9 +65617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
@@ -65642,8 +65644,8 @@
       <c r="A2">
         <v>831</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>438</v>
       </c>
       <c r="C2" t="s">
         <v>344</v>
@@ -65656,8 +65658,8 @@
       <c r="A3">
         <v>835</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>438</v>
       </c>
       <c r="C3" t="s">
         <v>341</v>
@@ -65670,8 +65672,8 @@
       <c r="A4">
         <v>800</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>438</v>
       </c>
       <c r="C4" t="s">
         <v>341</v>
@@ -65684,8 +65686,8 @@
       <c r="A5">
         <v>804</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>438</v>
       </c>
       <c r="C5" t="s">
         <v>343</v>
@@ -65698,8 +65700,8 @@
       <c r="A6">
         <v>819</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>438</v>
       </c>
       <c r="C6" t="s">
         <v>342</v>
@@ -65712,8 +65714,8 @@
       <c r="A7">
         <v>820</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>438</v>
       </c>
       <c r="C7" t="s">
         <v>342</v>
@@ -65726,8 +65728,8 @@
       <c r="A8">
         <v>834</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>438</v>
       </c>
       <c r="C8" t="s">
         <v>341</v>
@@ -65740,8 +65742,8 @@
       <c r="A9">
         <v>801</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>438</v>
       </c>
       <c r="C9" t="s">
         <v>346</v>
@@ -65754,8 +65756,8 @@
       <c r="A10">
         <v>806</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>438</v>
       </c>
       <c r="C10" t="s">
         <v>347</v>
@@ -65768,8 +65770,8 @@
       <c r="A11">
         <v>809</v>
       </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>438</v>
       </c>
       <c r="C11" t="s">
         <v>347</v>
@@ -65782,8 +65784,8 @@
       <c r="A12">
         <v>810</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>438</v>
       </c>
       <c r="C12" t="s">
         <v>346</v>
@@ -65796,8 +65798,8 @@
       <c r="A13">
         <v>825</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>438</v>
       </c>
       <c r="C13" t="s">
         <v>346</v>
@@ -65810,8 +65812,8 @@
       <c r="A14">
         <v>830</v>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>438</v>
       </c>
       <c r="C14" t="s">
         <v>346</v>
@@ -65824,8 +65826,8 @@
       <c r="A15">
         <v>807</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>438</v>
       </c>
       <c r="C15" t="s">
         <v>342</v>
@@ -65838,8 +65840,8 @@
       <c r="A16">
         <v>812</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>438</v>
       </c>
       <c r="C16" t="s">
         <v>342</v>
@@ -65852,8 +65854,8 @@
       <c r="A17">
         <v>813</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>438</v>
       </c>
       <c r="C17" t="s">
         <v>342</v>
@@ -65866,8 +65868,8 @@
       <c r="A18">
         <v>822</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>438</v>
       </c>
       <c r="C18" t="s">
         <v>346</v>
@@ -65880,8 +65882,8 @@
       <c r="A19">
         <v>826</v>
       </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>438</v>
       </c>
       <c r="C19" t="s">
         <v>342</v>
@@ -65894,8 +65896,8 @@
       <c r="A20">
         <v>827</v>
       </c>
-      <c r="B20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>438</v>
       </c>
       <c r="C20" t="s">
         <v>342</v>
@@ -65908,8 +65910,8 @@
       <c r="A21">
         <v>828</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>438</v>
       </c>
       <c r="C21" t="s">
         <v>341</v>
@@ -65922,8 +65924,8 @@
       <c r="A22">
         <v>811</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>438</v>
       </c>
       <c r="C22" t="s">
         <v>342</v>
@@ -65936,8 +65938,8 @@
       <c r="A23">
         <v>817</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>438</v>
       </c>
       <c r="C23" t="s">
         <v>344</v>
@@ -65950,8 +65952,8 @@
       <c r="A24">
         <v>821</v>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>438</v>
       </c>
       <c r="C24" t="s">
         <v>347</v>
@@ -65964,8 +65966,8 @@
       <c r="A25">
         <v>829</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>438</v>
       </c>
       <c r="C25" t="s">
         <v>342</v>
@@ -65978,8 +65980,8 @@
       <c r="A26">
         <v>832</v>
       </c>
-      <c r="B26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>438</v>
       </c>
       <c r="C26" t="s">
         <v>347</v>
@@ -65992,8 +65994,8 @@
       <c r="A27">
         <v>833</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>438</v>
       </c>
       <c r="C27" t="s">
         <v>346</v>
@@ -66006,8 +66008,8 @@
       <c r="A28">
         <v>836</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>438</v>
       </c>
       <c r="C28" t="s">
         <v>342</v>
@@ -66020,8 +66022,8 @@
       <c r="A29">
         <v>814</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>438</v>
       </c>
       <c r="C29" t="s">
         <v>341</v>
@@ -66034,8 +66036,8 @@
       <c r="A30">
         <v>818</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>438</v>
       </c>
       <c r="C30" t="s">
         <v>342</v>
@@ -66048,8 +66050,8 @@
       <c r="A31">
         <v>824</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>438</v>
       </c>
       <c r="C31" t="s">
         <v>342</v>
@@ -66062,8 +66064,8 @@
       <c r="A32">
         <v>816</v>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="s">
+        <v>438</v>
       </c>
       <c r="C32" t="s">
         <v>342</v>
@@ -66076,8 +66078,8 @@
       <c r="A33">
         <v>805</v>
       </c>
-      <c r="B33">
-        <v>1</v>
+      <c r="B33" t="s">
+        <v>438</v>
       </c>
       <c r="C33" t="s">
         <v>344</v>
@@ -66090,8 +66092,8 @@
       <c r="A34">
         <v>808</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>438</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -66104,8 +66106,8 @@
       <c r="A35">
         <v>803</v>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>438</v>
       </c>
       <c r="C35" t="s">
         <v>343</v>
@@ -66118,8 +66120,8 @@
       <c r="A36">
         <v>823</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>438</v>
       </c>
       <c r="C36" t="s">
         <v>342</v>
@@ -66132,8 +66134,8 @@
       <c r="A37">
         <v>837</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>438</v>
       </c>
       <c r="C37" t="s">
         <v>343</v>
@@ -66146,8 +66148,8 @@
       <c r="A38">
         <v>802</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>438</v>
       </c>
       <c r="C38" t="s">
         <v>341</v>
@@ -66160,8 +66162,8 @@
       <c r="A39">
         <v>838</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>438</v>
       </c>
       <c r="C39" t="s">
         <v>343</v>
@@ -66174,8 +66176,8 @@
       <c r="A40">
         <v>234</v>
       </c>
-      <c r="B40">
-        <v>1</v>
+      <c r="B40" t="s">
+        <v>438</v>
       </c>
       <c r="C40" t="s">
         <v>348</v>
@@ -66188,8 +66190,8 @@
       <c r="A41">
         <v>236</v>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>438</v>
       </c>
       <c r="C41" t="s">
         <v>348</v>
@@ -66202,8 +66204,8 @@
       <c r="A42">
         <v>247</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>438</v>
       </c>
       <c r="C42" t="s">
         <v>348</v>
@@ -66216,8 +66218,8 @@
       <c r="A43">
         <v>197</v>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>438</v>
       </c>
       <c r="C43" t="s">
         <v>348</v>
@@ -66230,8 +66232,8 @@
       <c r="A44">
         <v>156</v>
       </c>
-      <c r="B44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>438</v>
       </c>
       <c r="C44" t="s">
         <v>348</v>
@@ -66244,8 +66246,8 @@
       <c r="A45">
         <v>190</v>
       </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="B45" t="s">
+        <v>438</v>
       </c>
       <c r="C45" t="s">
         <v>348</v>
@@ -66258,8 +66260,8 @@
       <c r="A46">
         <v>201</v>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>438</v>
       </c>
       <c r="C46" t="s">
         <v>348</v>
@@ -66272,8 +66274,8 @@
       <c r="A47">
         <v>222</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>438</v>
       </c>
       <c r="C47" t="s">
         <v>346</v>
@@ -66286,8 +66288,8 @@
       <c r="A48">
         <v>155</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>438</v>
       </c>
       <c r="C48" t="s">
         <v>346</v>
@@ -66300,8 +66302,8 @@
       <c r="A49">
         <v>168</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>438</v>
       </c>
       <c r="C49" t="s">
         <v>346</v>
@@ -66314,8 +66316,8 @@
       <c r="A50">
         <v>171</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>438</v>
       </c>
       <c r="C50" t="s">
         <v>346</v>
@@ -66328,8 +66330,8 @@
       <c r="A51">
         <v>199</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>438</v>
       </c>
       <c r="C51" t="s">
         <v>346</v>
@@ -66342,8 +66344,8 @@
       <c r="A52">
         <v>229</v>
       </c>
-      <c r="B52">
-        <v>1</v>
+      <c r="B52" t="s">
+        <v>438</v>
       </c>
       <c r="C52" t="s">
         <v>346</v>
@@ -66356,8 +66358,8 @@
       <c r="A53">
         <v>233</v>
       </c>
-      <c r="B53">
-        <v>1</v>
+      <c r="B53" t="s">
+        <v>438</v>
       </c>
       <c r="C53" t="s">
         <v>346</v>
@@ -66370,8 +66372,8 @@
       <c r="A54">
         <v>235</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="s">
+        <v>438</v>
       </c>
       <c r="C54" t="s">
         <v>346</v>
@@ -66384,8 +66386,8 @@
       <c r="A55">
         <v>165</v>
       </c>
-      <c r="B55">
-        <v>1</v>
+      <c r="B55" t="s">
+        <v>438</v>
       </c>
       <c r="C55" t="s">
         <v>346</v>
@@ -66398,8 +66400,8 @@
       <c r="A56">
         <v>241</v>
       </c>
-      <c r="B56">
-        <v>1</v>
+      <c r="B56" t="s">
+        <v>438</v>
       </c>
       <c r="C56" t="s">
         <v>346</v>
@@ -66412,8 +66414,8 @@
       <c r="A57">
         <v>245</v>
       </c>
-      <c r="B57">
-        <v>1</v>
+      <c r="B57" t="s">
+        <v>438</v>
       </c>
       <c r="C57" t="s">
         <v>346</v>
@@ -66426,8 +66428,8 @@
       <c r="A58">
         <v>237</v>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" t="s">
+        <v>438</v>
       </c>
       <c r="C58" t="s">
         <v>346</v>
@@ -66440,8 +66442,8 @@
       <c r="A59">
         <v>167</v>
       </c>
-      <c r="B59">
-        <v>1</v>
+      <c r="B59" t="s">
+        <v>438</v>
       </c>
       <c r="C59" t="s">
         <v>346</v>
@@ -66454,8 +66456,8 @@
       <c r="A60">
         <v>134</v>
       </c>
-      <c r="B60">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>438</v>
       </c>
       <c r="C60" t="s">
         <v>342</v>
@@ -66468,8 +66470,8 @@
       <c r="A61">
         <v>272</v>
       </c>
-      <c r="B61">
-        <v>1</v>
+      <c r="B61" t="s">
+        <v>438</v>
       </c>
       <c r="C61" t="s">
         <v>342</v>
@@ -66482,8 +66484,8 @@
       <c r="A62">
         <v>276</v>
       </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>438</v>
       </c>
       <c r="C62" t="s">
         <v>342</v>
@@ -66496,8 +66498,8 @@
       <c r="A63">
         <v>140</v>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>438</v>
       </c>
       <c r="C63" t="s">
         <v>342</v>
@@ -66510,8 +66512,8 @@
       <c r="A64">
         <v>118</v>
       </c>
-      <c r="B64">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>438</v>
       </c>
       <c r="C64" t="s">
         <v>342</v>
@@ -66524,8 +66526,8 @@
       <c r="A65">
         <v>52</v>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>438</v>
       </c>
       <c r="C65" t="s">
         <v>341</v>
@@ -66538,8 +66540,8 @@
       <c r="A66">
         <v>36</v>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" t="s">
+        <v>438</v>
       </c>
       <c r="C66" t="s">
         <v>341</v>
@@ -66552,8 +66554,8 @@
       <c r="A67">
         <v>74</v>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>438</v>
       </c>
       <c r="C67" t="s">
         <v>341</v>
@@ -66566,8 +66568,8 @@
       <c r="A68">
         <v>83</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" t="s">
+        <v>438</v>
       </c>
       <c r="C68" t="s">
         <v>341</v>
@@ -66580,8 +66582,8 @@
       <c r="A69">
         <v>14</v>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="s">
+        <v>438</v>
       </c>
       <c r="C69" t="s">
         <v>341</v>
@@ -66594,8 +66596,8 @@
       <c r="A70">
         <v>39</v>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="s">
+        <v>438</v>
       </c>
       <c r="C70" t="s">
         <v>341</v>
@@ -66608,8 +66610,8 @@
       <c r="A71">
         <v>96</v>
       </c>
-      <c r="B71">
-        <v>1</v>
+      <c r="B71" t="s">
+        <v>438</v>
       </c>
       <c r="C71" t="s">
         <v>341</v>
@@ -66622,8 +66624,8 @@
       <c r="A72">
         <v>15</v>
       </c>
-      <c r="B72">
-        <v>1</v>
+      <c r="B72" t="s">
+        <v>438</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -66636,8 +66638,8 @@
       <c r="A73">
         <v>40</v>
       </c>
-      <c r="B73">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>438</v>
       </c>
       <c r="C73" t="s">
         <v>341</v>
@@ -66650,8 +66652,8 @@
       <c r="A74">
         <v>89</v>
       </c>
-      <c r="B74">
-        <v>1</v>
+      <c r="B74" t="s">
+        <v>438</v>
       </c>
       <c r="C74" t="s">
         <v>341</v>
@@ -66664,8 +66666,8 @@
       <c r="A75">
         <v>93</v>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="s">
+        <v>438</v>
       </c>
       <c r="C75" t="s">
         <v>341</v>
@@ -66678,8 +66680,8 @@
       <c r="A76">
         <v>292</v>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="s">
+        <v>438</v>
       </c>
       <c r="C76" t="s">
         <v>344</v>
@@ -66692,8 +66694,8 @@
       <c r="A77">
         <v>294</v>
       </c>
-      <c r="B77">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>438</v>
       </c>
       <c r="C77" t="s">
         <v>344</v>
@@ -66706,8 +66708,8 @@
       <c r="A78">
         <v>336</v>
       </c>
-      <c r="B78">
-        <v>1</v>
+      <c r="B78" t="s">
+        <v>438</v>
       </c>
       <c r="C78" t="s">
         <v>344</v>
@@ -66720,8 +66722,8 @@
       <c r="A79">
         <v>326</v>
       </c>
-      <c r="B79">
-        <v>1</v>
+      <c r="B79" t="s">
+        <v>438</v>
       </c>
       <c r="C79" t="s">
         <v>344</v>
@@ -66734,8 +66736,8 @@
       <c r="A80">
         <v>354</v>
       </c>
-      <c r="B80">
-        <v>1</v>
+      <c r="B80" t="s">
+        <v>438</v>
       </c>
       <c r="C80" t="s">
         <v>345</v>
@@ -66748,8 +66750,8 @@
       <c r="A81">
         <v>405</v>
       </c>
-      <c r="B81">
-        <v>1</v>
+      <c r="B81" t="s">
+        <v>438</v>
       </c>
       <c r="C81" t="s">
         <v>343</v>
@@ -66762,8 +66764,8 @@
       <c r="A82">
         <v>409</v>
       </c>
-      <c r="B82">
-        <v>1</v>
+      <c r="B82" t="s">
+        <v>438</v>
       </c>
       <c r="C82" t="s">
         <v>343</v>
@@ -66776,8 +66778,8 @@
       <c r="A83">
         <v>426</v>
       </c>
-      <c r="B83">
-        <v>1</v>
+      <c r="B83" t="s">
+        <v>438</v>
       </c>
       <c r="C83" t="s">
         <v>343</v>
@@ -66790,8 +66792,8 @@
       <c r="A84">
         <v>407</v>
       </c>
-      <c r="B84">
-        <v>1</v>
+      <c r="B84" t="s">
+        <v>438</v>
       </c>
       <c r="C84" t="s">
         <v>343</v>
@@ -66804,8 +66806,8 @@
       <c r="A85">
         <v>412</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" t="s">
+        <v>438</v>
       </c>
       <c r="C85" t="s">
         <v>343</v>
@@ -66818,8 +66820,8 @@
       <c r="A86">
         <v>422</v>
       </c>
-      <c r="B86">
-        <v>1</v>
+      <c r="B86" t="s">
+        <v>438</v>
       </c>
       <c r="C86" t="s">
         <v>343</v>

--- a/backdata/0426FCT and Local Name.xlsx
+++ b/backdata/0426FCT and Local Name.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/webApp/ifna_pwa02/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D96D96-46BC-A04E-B9F0-73BA8FDC72DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC32E7-B0F8-DA4A-8D5F-8384A40D327F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1060" windowWidth="25860" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,14 +24,13 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fct_org!$D$1:$D$326</definedName>
-    <definedName name="column_title">[2]Ref_FA!$B$1:$JD$1</definedName>
+    <definedName name="column_title">[1]Ref_FA!$B$1:$JD$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">fct_org!$AL$1</definedName>
-    <definedName name="fat_info">[2]FAT_Raw!$B$4:$E$17</definedName>
-    <definedName name="food_item_id">[2]Ref_FA!$B$1:$B$275</definedName>
-    <definedName name="review_1">[2]Ref_FA!$B$1:$JD$275</definedName>
+    <definedName name="fat_info">[1]FAT_Raw!$B$4:$E$17</definedName>
+    <definedName name="food_item_id">[1]Ref_FA!$B$1:$B$275</definedName>
+    <definedName name="review_1">[1]Ref_FA!$B$1:$JD$275</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -325,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="752">
   <si>
     <t>FCT_id</t>
   </si>
@@ -2760,6 +2759,10 @@
   <si>
     <t>Fonio, boiled</t>
   </si>
+  <si>
+    <t>Oats / Aja</t>
+    <phoneticPr fontId="19"/>
+  </si>
 </sst>
 </file>
 
@@ -3708,29 +3711,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4200,6 +4180,29 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4258,782 +4261,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Consolidated"/>
-      <sheetName val="INFOOD-WAFCT"/>
-      <sheetName val="06 NV_stat_57 (per 100g EP)"/>
-      <sheetName val="INFOOD-Pulses"/>
-      <sheetName val="05 NV_stat (per 100 g EP on FW)"/>
-      <sheetName val="JPN FCT"/>
-      <sheetName val="Table"/>
-      <sheetName val="EU FCD"/>
-      <sheetName val="COMPO7"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>INFOOD-WAFCT</v>
-          </cell>
-          <cell r="F7" t="str">
-            <v>149</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>19.9</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>1</v>
-          </cell>
-          <cell r="I7" t="str">
-            <v>3.2</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>7.7</v>
-          </cell>
-          <cell r="K7" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="L7" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="M7" t="str">
-            <v>1.1</v>
-          </cell>
-          <cell r="N7" t="str">
-            <v>10</v>
-          </cell>
-          <cell r="O7" t="str">
-            <v>19</v>
-          </cell>
-          <cell r="P7" t="str">
-            <v>187</v>
-          </cell>
-          <cell r="Q7" t="str">
-            <v>243</v>
-          </cell>
-          <cell r="R7" t="str">
-            <v>70</v>
-          </cell>
-          <cell r="S7" t="str">
-            <v>3.55</v>
-          </cell>
-          <cell r="T7" t="str">
-            <v>0.16</v>
-          </cell>
-          <cell r="U7" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16" t="str">
-            <v>INFOOD-WAFCT</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>365</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>9.3</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>15.2</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>5.9</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>64.2</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>9.0</v>
-          </cell>
-          <cell r="M16" t="str">
-            <v>2.1</v>
-          </cell>
-          <cell r="N16" t="str">
-            <v>23</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v>96</v>
-          </cell>
-          <cell r="P16" t="str">
-            <v>402</v>
-          </cell>
-          <cell r="Q16" t="str">
-            <v>332</v>
-          </cell>
-          <cell r="R16" t="str">
-            <v>12</v>
-          </cell>
-          <cell r="S16" t="str">
-            <v>2.58</v>
-          </cell>
-          <cell r="T16" t="str">
-            <v>0.45</v>
-          </cell>
-          <cell r="U16" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17" t="str">
-            <v>INFOOD-WAFCT</v>
-          </cell>
-          <cell r="F17">
-            <v>316</v>
-          </cell>
-          <cell r="G17">
-            <v>60.4</v>
-          </cell>
-          <cell r="H17">
-            <v>141</v>
-          </cell>
-          <cell r="I17">
-            <v>7.4</v>
-          </cell>
-          <cell r="J17">
-            <v>8.1999999999999993</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>0</v>
-          </cell>
-          <cell r="M17">
-            <v>7.1</v>
-          </cell>
-          <cell r="N17">
-            <v>1939</v>
-          </cell>
-          <cell r="O17">
-            <v>75</v>
-          </cell>
-          <cell r="P17">
-            <v>1525</v>
-          </cell>
-          <cell r="Q17">
-            <v>707</v>
-          </cell>
-          <cell r="R17">
-            <v>147</v>
-          </cell>
-          <cell r="S17">
-            <v>7.67</v>
-          </cell>
-          <cell r="T17">
-            <v>0.2</v>
-          </cell>
-          <cell r="U17">
-            <v>141</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25" t="str">
-            <v>98</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>16.4</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>131</v>
-          </cell>
-          <cell r="I25" t="str">
-            <v>4.1</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v>3.6</v>
-          </cell>
-          <cell r="K25" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="M25" t="str">
-            <v>1.1</v>
-          </cell>
-          <cell r="N25" t="str">
-            <v>6</v>
-          </cell>
-          <cell r="O25" t="str">
-            <v>17</v>
-          </cell>
-          <cell r="P25" t="str">
-            <v>210</v>
-          </cell>
-          <cell r="Q25" t="str">
-            <v>257</v>
-          </cell>
-          <cell r="R25" t="str">
-            <v>179</v>
-          </cell>
-          <cell r="S25" t="str">
-            <v>2.62</v>
-          </cell>
-          <cell r="T25" t="str">
-            <v>0.47</v>
-          </cell>
-          <cell r="U25" t="str">
-            <v>98</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30" t="str">
-            <v>INFOOD-WAFCT</v>
-          </cell>
-          <cell r="F30" t="str">
-            <v>377</v>
-          </cell>
-          <cell r="G30" t="str">
-            <v>11.9</v>
-          </cell>
-          <cell r="H30" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="I30" t="str">
-            <v>4.4</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>7.8</v>
-          </cell>
-          <cell r="K30" t="str">
-            <v>59.7</v>
-          </cell>
-          <cell r="L30" t="str">
-            <v>10.2</v>
-          </cell>
-          <cell r="M30" t="str">
-            <v>1.6</v>
-          </cell>
-          <cell r="N30" t="str">
-            <v>54</v>
-          </cell>
-          <cell r="O30" t="str">
-            <v>153</v>
-          </cell>
-          <cell r="P30" t="str">
-            <v>491</v>
-          </cell>
-          <cell r="Q30" t="str">
-            <v>362</v>
-          </cell>
-          <cell r="R30" t="str">
-            <v>12</v>
-          </cell>
-          <cell r="S30" t="str">
-            <v>3.18</v>
-          </cell>
-          <cell r="T30" t="str">
-            <v>0.36</v>
-          </cell>
-          <cell r="U30" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36" t="str">
-            <v>INFOOD-WAFCT</v>
-          </cell>
-          <cell r="F36" t="str">
-            <v>351</v>
-          </cell>
-          <cell r="G36" t="str">
-            <v>13.3</v>
-          </cell>
-          <cell r="H36" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="I36" t="str">
-            <v>7.6</v>
-          </cell>
-          <cell r="J36" t="str">
-            <v>2.4</v>
-          </cell>
-          <cell r="K36" t="str">
-            <v>65.1</v>
-          </cell>
-          <cell r="L36" t="str">
-            <v>8.0</v>
-          </cell>
-          <cell r="M36" t="str">
-            <v>2.4</v>
-          </cell>
-          <cell r="N36" t="str">
-            <v>180</v>
-          </cell>
-          <cell r="O36" t="str">
-            <v>184</v>
-          </cell>
-          <cell r="P36" t="str">
-            <v>429</v>
-          </cell>
-          <cell r="Q36" t="str">
-            <v>427</v>
-          </cell>
-          <cell r="R36" t="str">
-            <v>12</v>
-          </cell>
-          <cell r="S36" t="str">
-            <v>3.63</v>
-          </cell>
-          <cell r="T36" t="str">
-            <v>0.81</v>
-          </cell>
-          <cell r="U36" t="str">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>INFOOD-Pulses</v>
-          </cell>
-          <cell r="F10">
-            <v>337.19326971187132</v>
-          </cell>
-          <cell r="G10">
-            <v>20.39087880480599</v>
-          </cell>
-          <cell r="H10">
-            <v>4.5287923021792205</v>
-          </cell>
-          <cell r="I10">
-            <v>6.5802059045513985</v>
-          </cell>
-          <cell r="J10">
-            <v>5.1521409550561801</v>
-          </cell>
-          <cell r="K10">
-            <v>41.954982215026178</v>
-          </cell>
-          <cell r="L10">
-            <v>20.720278518518519</v>
-          </cell>
-          <cell r="M10">
-            <v>2.8215445424692112</v>
-          </cell>
-          <cell r="N10">
-            <v>121.1388257912717</v>
-          </cell>
-          <cell r="O10">
-            <v>131.51393227443327</v>
-          </cell>
-          <cell r="P10">
-            <v>264.39582201941204</v>
-          </cell>
-          <cell r="Q10">
-            <v>819.09471361537203</v>
-          </cell>
-          <cell r="R10">
-            <v>11.778044855555555</v>
-          </cell>
-          <cell r="S10">
-            <v>3.1170697093157109</v>
-          </cell>
-          <cell r="T10">
-            <v>0.44477148025084778</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13" t="str">
-            <v>INFOOD-Pulses</v>
-          </cell>
-          <cell r="F13">
-            <v>308.58325217929291</v>
-          </cell>
-          <cell r="G13">
-            <v>25.343637519740259</v>
-          </cell>
-          <cell r="H13">
-            <v>2.3774962478818691</v>
-          </cell>
-          <cell r="I13">
-            <v>5.1881386000000003</v>
-          </cell>
-          <cell r="J13">
-            <v>1.3640884722222224</v>
-          </cell>
-          <cell r="K13">
-            <v>38.349884795916303</v>
-          </cell>
-          <cell r="L13">
-            <v>20.766183333333334</v>
-          </cell>
-          <cell r="M13">
-            <v>3.2855013333333329</v>
-          </cell>
-          <cell r="N13">
-            <v>95.641565714285704</v>
-          </cell>
-          <cell r="O13">
-            <v>135.49333139999999</v>
-          </cell>
-          <cell r="P13">
-            <v>430.57531433333332</v>
-          </cell>
-          <cell r="Q13">
-            <v>1190</v>
-          </cell>
-          <cell r="R13">
-            <v>25.034634000000004</v>
-          </cell>
-          <cell r="S13">
-            <v>3.54913466</v>
-          </cell>
-          <cell r="T13">
-            <v>0.82199999999999995</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22" t="str">
-            <v>INFOOD-Pulses</v>
-          </cell>
-          <cell r="F22">
-            <v>311.00857754010696</v>
-          </cell>
-          <cell r="G22">
-            <v>21.826329999999999</v>
-          </cell>
-          <cell r="H22">
-            <v>0</v>
-          </cell>
-          <cell r="I22">
-            <v>8.01</v>
-          </cell>
-          <cell r="J22">
-            <v>1.7770545454545454</v>
-          </cell>
-          <cell r="K22">
-            <v>42.617441657754014</v>
-          </cell>
-          <cell r="L22">
-            <v>18.62</v>
-          </cell>
-          <cell r="M22">
-            <v>3.7274090909090902</v>
-          </cell>
-          <cell r="N22">
-            <v>141.46899999999999</v>
-          </cell>
-          <cell r="O22">
-            <v>165.52885714285713</v>
-          </cell>
-          <cell r="P22">
-            <v>403.94</v>
-          </cell>
-          <cell r="Q22">
-            <v>1340</v>
-          </cell>
-          <cell r="R22">
-            <v>16.657142857142855</v>
-          </cell>
-          <cell r="S22">
-            <v>2.9115085714285711</v>
-          </cell>
-          <cell r="T22">
-            <v>1.0271999999999999</v>
-          </cell>
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25" t="str">
-            <v>INFOOD-Pulses</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28" t="str">
-            <v>INFOOD-Pulses</v>
-          </cell>
-          <cell r="F28">
-            <v>324.91055986325625</v>
-          </cell>
-          <cell r="G28">
-            <v>20.948678958844134</v>
-          </cell>
-          <cell r="H28">
-            <v>7.0579916666666662</v>
-          </cell>
-          <cell r="I28">
-            <v>4.4225523529411754</v>
-          </cell>
-          <cell r="J28">
-            <v>1.3467762592592594</v>
-          </cell>
-          <cell r="K28">
-            <v>49.563096090303254</v>
-          </cell>
-          <cell r="L28">
-            <v>15.371236666666666</v>
-          </cell>
-          <cell r="M28">
-            <v>3.0995668636363636</v>
-          </cell>
-          <cell r="N28">
-            <v>89.430800000000005</v>
-          </cell>
-          <cell r="O28">
-            <v>139.42807692307696</v>
-          </cell>
-          <cell r="P28">
-            <v>350.39132000000001</v>
-          </cell>
-          <cell r="Q28">
-            <v>1180</v>
-          </cell>
-          <cell r="R28">
-            <v>9.0934538461538459</v>
-          </cell>
-          <cell r="S28">
-            <v>1.6243035714285716</v>
-          </cell>
-          <cell r="T28">
-            <v>1.1649149999999999</v>
-          </cell>
-          <cell r="U28">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>JPN FCT</v>
-          </cell>
-          <cell r="F2">
-            <v>340</v>
-          </cell>
-          <cell r="G2">
-            <v>5.4</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>(0)</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>1.0</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>(1.1)</v>
-          </cell>
-          <cell r="K2">
-            <v>77.8</v>
-          </cell>
-          <cell r="L2">
-            <v>9.6</v>
-          </cell>
-          <cell r="M2">
-            <v>0.7</v>
-          </cell>
-          <cell r="N2">
-            <v>17</v>
-          </cell>
-          <cell r="O2">
-            <v>25</v>
-          </cell>
-          <cell r="P2">
-            <v>110</v>
-          </cell>
-          <cell r="Q2">
-            <v>170</v>
-          </cell>
-          <cell r="R2">
-            <v>2</v>
-          </cell>
-          <cell r="S2">
-            <v>1.2</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>0.40</v>
-          </cell>
-          <cell r="U2" t="str">
-            <v>(0)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>JPN FCT</v>
-          </cell>
-          <cell r="F3">
-            <v>41</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>(1.0)</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>(0)</v>
-          </cell>
-          <cell r="I3">
-            <v>0.4</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>(0.1)</v>
-          </cell>
-          <cell r="K3">
-            <v>9.3000000000000007</v>
-          </cell>
-          <cell r="L3">
-            <v>2.7</v>
-          </cell>
-          <cell r="M3">
-            <v>1.1000000000000001</v>
-          </cell>
-          <cell r="N3">
-            <v>12</v>
-          </cell>
-          <cell r="O3">
-            <v>18</v>
-          </cell>
-          <cell r="P3">
-            <v>23</v>
-          </cell>
-          <cell r="Q3">
-            <v>460</v>
-          </cell>
-          <cell r="R3">
-            <v>30</v>
-          </cell>
-          <cell r="S3">
-            <v>0.3</v>
-          </cell>
-          <cell r="T3">
-            <v>0.09</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>(0)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24" t="str">
-            <v>JPN FCT</v>
-          </cell>
-          <cell r="F24">
-            <v>28</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>(1.6)</v>
-          </cell>
-          <cell r="H24">
-            <v>240</v>
-          </cell>
-          <cell r="I24">
-            <v>0.8</v>
-          </cell>
-          <cell r="J24">
-            <v>0.1</v>
-          </cell>
-          <cell r="K24">
-            <v>5.6</v>
-          </cell>
-          <cell r="L24">
-            <v>3.7</v>
-          </cell>
-          <cell r="M24">
-            <v>1.5</v>
-          </cell>
-          <cell r="N24">
-            <v>220</v>
-          </cell>
-          <cell r="O24">
-            <v>44</v>
-          </cell>
-          <cell r="P24">
-            <v>45</v>
-          </cell>
-          <cell r="Q24">
-            <v>420</v>
-          </cell>
-          <cell r="R24">
-            <v>9</v>
-          </cell>
-          <cell r="S24">
-            <v>0.3</v>
-          </cell>
-          <cell r="T24">
-            <v>0.05</v>
-          </cell>
-          <cell r="U24" t="str">
-            <v>(0)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35" t="str">
-            <v>JPN FCT</v>
-          </cell>
-          <cell r="F35">
-            <v>19</v>
-          </cell>
-          <cell r="G35" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H35">
-            <v>310</v>
-          </cell>
-          <cell r="I35">
-            <v>3.6</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>(0.1)</v>
-          </cell>
-          <cell r="K35">
-            <v>3.7</v>
-          </cell>
-          <cell r="L35">
-            <v>3.3</v>
-          </cell>
-          <cell r="M35">
-            <v>1.9</v>
-          </cell>
-          <cell r="N35">
-            <v>75</v>
-          </cell>
-          <cell r="O35">
-            <v>74</v>
-          </cell>
-          <cell r="P35">
-            <v>33</v>
-          </cell>
-          <cell r="Q35">
-            <v>1200</v>
-          </cell>
-          <cell r="R35">
-            <v>71</v>
-          </cell>
-          <cell r="S35">
-            <v>0.3</v>
-          </cell>
-          <cell r="T35">
-            <v>0.06</v>
-          </cell>
-          <cell r="U35" t="str">
-            <v>(0)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Ref_FA"/>
       <sheetName val="FA%_Raw"/>
       <sheetName val="Sheet1"/>
@@ -31106,6 +30333,782 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Consolidated"/>
+      <sheetName val="INFOOD-WAFCT"/>
+      <sheetName val="06 NV_stat_57 (per 100g EP)"/>
+      <sheetName val="INFOOD-Pulses"/>
+      <sheetName val="05 NV_stat (per 100 g EP on FW)"/>
+      <sheetName val="JPN FCT"/>
+      <sheetName val="Table"/>
+      <sheetName val="EU FCD"/>
+      <sheetName val="COMPO7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>INFOOD-WAFCT</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>149</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>19.9</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>3.2</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>7.7</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>1.1</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>10</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>19</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>187</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>243</v>
+          </cell>
+          <cell r="R7" t="str">
+            <v>70</v>
+          </cell>
+          <cell r="S7" t="str">
+            <v>3.55</v>
+          </cell>
+          <cell r="T7" t="str">
+            <v>0.16</v>
+          </cell>
+          <cell r="U7" t="str">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>INFOOD-WAFCT</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>365</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>9.3</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>15.2</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v>5.9</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>64.2</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>9.0</v>
+          </cell>
+          <cell r="M16" t="str">
+            <v>2.1</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>23</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>96</v>
+          </cell>
+          <cell r="P16" t="str">
+            <v>402</v>
+          </cell>
+          <cell r="Q16" t="str">
+            <v>332</v>
+          </cell>
+          <cell r="R16" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="S16" t="str">
+            <v>2.58</v>
+          </cell>
+          <cell r="T16" t="str">
+            <v>0.45</v>
+          </cell>
+          <cell r="U16" t="str">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>INFOOD-WAFCT</v>
+          </cell>
+          <cell r="F17">
+            <v>316</v>
+          </cell>
+          <cell r="G17">
+            <v>60.4</v>
+          </cell>
+          <cell r="H17">
+            <v>141</v>
+          </cell>
+          <cell r="I17">
+            <v>7.4</v>
+          </cell>
+          <cell r="J17">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>7.1</v>
+          </cell>
+          <cell r="N17">
+            <v>1939</v>
+          </cell>
+          <cell r="O17">
+            <v>75</v>
+          </cell>
+          <cell r="P17">
+            <v>1525</v>
+          </cell>
+          <cell r="Q17">
+            <v>707</v>
+          </cell>
+          <cell r="R17">
+            <v>147</v>
+          </cell>
+          <cell r="S17">
+            <v>7.67</v>
+          </cell>
+          <cell r="T17">
+            <v>0.2</v>
+          </cell>
+          <cell r="U17">
+            <v>141</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25" t="str">
+            <v>98</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>16.4</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>131</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>4.1</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v>3.6</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="M25" t="str">
+            <v>1.1</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>17</v>
+          </cell>
+          <cell r="P25" t="str">
+            <v>210</v>
+          </cell>
+          <cell r="Q25" t="str">
+            <v>257</v>
+          </cell>
+          <cell r="R25" t="str">
+            <v>179</v>
+          </cell>
+          <cell r="S25" t="str">
+            <v>2.62</v>
+          </cell>
+          <cell r="T25" t="str">
+            <v>0.47</v>
+          </cell>
+          <cell r="U25" t="str">
+            <v>98</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>INFOOD-WAFCT</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>377</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>11.9</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>4.4</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>7.8</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>59.7</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>10.2</v>
+          </cell>
+          <cell r="M30" t="str">
+            <v>1.6</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>54</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>153</v>
+          </cell>
+          <cell r="P30" t="str">
+            <v>491</v>
+          </cell>
+          <cell r="Q30" t="str">
+            <v>362</v>
+          </cell>
+          <cell r="R30" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="S30" t="str">
+            <v>3.18</v>
+          </cell>
+          <cell r="T30" t="str">
+            <v>0.36</v>
+          </cell>
+          <cell r="U30" t="str">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>INFOOD-WAFCT</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>351</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>13.3</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>7.6</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>2.4</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>65.1</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>8.0</v>
+          </cell>
+          <cell r="M36" t="str">
+            <v>2.4</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>180</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>184</v>
+          </cell>
+          <cell r="P36" t="str">
+            <v>429</v>
+          </cell>
+          <cell r="Q36" t="str">
+            <v>427</v>
+          </cell>
+          <cell r="R36" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="S36" t="str">
+            <v>3.63</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>0.81</v>
+          </cell>
+          <cell r="U36" t="str">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>INFOOD-Pulses</v>
+          </cell>
+          <cell r="F10">
+            <v>337.19326971187132</v>
+          </cell>
+          <cell r="G10">
+            <v>20.39087880480599</v>
+          </cell>
+          <cell r="H10">
+            <v>4.5287923021792205</v>
+          </cell>
+          <cell r="I10">
+            <v>6.5802059045513985</v>
+          </cell>
+          <cell r="J10">
+            <v>5.1521409550561801</v>
+          </cell>
+          <cell r="K10">
+            <v>41.954982215026178</v>
+          </cell>
+          <cell r="L10">
+            <v>20.720278518518519</v>
+          </cell>
+          <cell r="M10">
+            <v>2.8215445424692112</v>
+          </cell>
+          <cell r="N10">
+            <v>121.1388257912717</v>
+          </cell>
+          <cell r="O10">
+            <v>131.51393227443327</v>
+          </cell>
+          <cell r="P10">
+            <v>264.39582201941204</v>
+          </cell>
+          <cell r="Q10">
+            <v>819.09471361537203</v>
+          </cell>
+          <cell r="R10">
+            <v>11.778044855555555</v>
+          </cell>
+          <cell r="S10">
+            <v>3.1170697093157109</v>
+          </cell>
+          <cell r="T10">
+            <v>0.44477148025084778</v>
+          </cell>
+          <cell r="U10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>INFOOD-Pulses</v>
+          </cell>
+          <cell r="F13">
+            <v>308.58325217929291</v>
+          </cell>
+          <cell r="G13">
+            <v>25.343637519740259</v>
+          </cell>
+          <cell r="H13">
+            <v>2.3774962478818691</v>
+          </cell>
+          <cell r="I13">
+            <v>5.1881386000000003</v>
+          </cell>
+          <cell r="J13">
+            <v>1.3640884722222224</v>
+          </cell>
+          <cell r="K13">
+            <v>38.349884795916303</v>
+          </cell>
+          <cell r="L13">
+            <v>20.766183333333334</v>
+          </cell>
+          <cell r="M13">
+            <v>3.2855013333333329</v>
+          </cell>
+          <cell r="N13">
+            <v>95.641565714285704</v>
+          </cell>
+          <cell r="O13">
+            <v>135.49333139999999</v>
+          </cell>
+          <cell r="P13">
+            <v>430.57531433333332</v>
+          </cell>
+          <cell r="Q13">
+            <v>1190</v>
+          </cell>
+          <cell r="R13">
+            <v>25.034634000000004</v>
+          </cell>
+          <cell r="S13">
+            <v>3.54913466</v>
+          </cell>
+          <cell r="T13">
+            <v>0.82199999999999995</v>
+          </cell>
+          <cell r="U13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>INFOOD-Pulses</v>
+          </cell>
+          <cell r="F22">
+            <v>311.00857754010696</v>
+          </cell>
+          <cell r="G22">
+            <v>21.826329999999999</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>8.01</v>
+          </cell>
+          <cell r="J22">
+            <v>1.7770545454545454</v>
+          </cell>
+          <cell r="K22">
+            <v>42.617441657754014</v>
+          </cell>
+          <cell r="L22">
+            <v>18.62</v>
+          </cell>
+          <cell r="M22">
+            <v>3.7274090909090902</v>
+          </cell>
+          <cell r="N22">
+            <v>141.46899999999999</v>
+          </cell>
+          <cell r="O22">
+            <v>165.52885714285713</v>
+          </cell>
+          <cell r="P22">
+            <v>403.94</v>
+          </cell>
+          <cell r="Q22">
+            <v>1340</v>
+          </cell>
+          <cell r="R22">
+            <v>16.657142857142855</v>
+          </cell>
+          <cell r="S22">
+            <v>2.9115085714285711</v>
+          </cell>
+          <cell r="T22">
+            <v>1.0271999999999999</v>
+          </cell>
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>INFOOD-Pulses</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>INFOOD-Pulses</v>
+          </cell>
+          <cell r="F28">
+            <v>324.91055986325625</v>
+          </cell>
+          <cell r="G28">
+            <v>20.948678958844134</v>
+          </cell>
+          <cell r="H28">
+            <v>7.0579916666666662</v>
+          </cell>
+          <cell r="I28">
+            <v>4.4225523529411754</v>
+          </cell>
+          <cell r="J28">
+            <v>1.3467762592592594</v>
+          </cell>
+          <cell r="K28">
+            <v>49.563096090303254</v>
+          </cell>
+          <cell r="L28">
+            <v>15.371236666666666</v>
+          </cell>
+          <cell r="M28">
+            <v>3.0995668636363636</v>
+          </cell>
+          <cell r="N28">
+            <v>89.430800000000005</v>
+          </cell>
+          <cell r="O28">
+            <v>139.42807692307696</v>
+          </cell>
+          <cell r="P28">
+            <v>350.39132000000001</v>
+          </cell>
+          <cell r="Q28">
+            <v>1180</v>
+          </cell>
+          <cell r="R28">
+            <v>9.0934538461538459</v>
+          </cell>
+          <cell r="S28">
+            <v>1.6243035714285716</v>
+          </cell>
+          <cell r="T28">
+            <v>1.1649149999999999</v>
+          </cell>
+          <cell r="U28">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>JPN FCT</v>
+          </cell>
+          <cell r="F2">
+            <v>340</v>
+          </cell>
+          <cell r="G2">
+            <v>5.4</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>(0)</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>1.0</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>(1.1)</v>
+          </cell>
+          <cell r="K2">
+            <v>77.8</v>
+          </cell>
+          <cell r="L2">
+            <v>9.6</v>
+          </cell>
+          <cell r="M2">
+            <v>0.7</v>
+          </cell>
+          <cell r="N2">
+            <v>17</v>
+          </cell>
+          <cell r="O2">
+            <v>25</v>
+          </cell>
+          <cell r="P2">
+            <v>110</v>
+          </cell>
+          <cell r="Q2">
+            <v>170</v>
+          </cell>
+          <cell r="R2">
+            <v>2</v>
+          </cell>
+          <cell r="S2">
+            <v>1.2</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>0.40</v>
+          </cell>
+          <cell r="U2" t="str">
+            <v>(0)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>JPN FCT</v>
+          </cell>
+          <cell r="F3">
+            <v>41</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>(1.0)</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>(0)</v>
+          </cell>
+          <cell r="I3">
+            <v>0.4</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>(0.1)</v>
+          </cell>
+          <cell r="K3">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="L3">
+            <v>2.7</v>
+          </cell>
+          <cell r="M3">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="N3">
+            <v>12</v>
+          </cell>
+          <cell r="O3">
+            <v>18</v>
+          </cell>
+          <cell r="P3">
+            <v>23</v>
+          </cell>
+          <cell r="Q3">
+            <v>460</v>
+          </cell>
+          <cell r="R3">
+            <v>30</v>
+          </cell>
+          <cell r="S3">
+            <v>0.3</v>
+          </cell>
+          <cell r="T3">
+            <v>0.09</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>(0)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>JPN FCT</v>
+          </cell>
+          <cell r="F24">
+            <v>28</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>(1.6)</v>
+          </cell>
+          <cell r="H24">
+            <v>240</v>
+          </cell>
+          <cell r="I24">
+            <v>0.8</v>
+          </cell>
+          <cell r="J24">
+            <v>0.1</v>
+          </cell>
+          <cell r="K24">
+            <v>5.6</v>
+          </cell>
+          <cell r="L24">
+            <v>3.7</v>
+          </cell>
+          <cell r="M24">
+            <v>1.5</v>
+          </cell>
+          <cell r="N24">
+            <v>220</v>
+          </cell>
+          <cell r="O24">
+            <v>44</v>
+          </cell>
+          <cell r="P24">
+            <v>45</v>
+          </cell>
+          <cell r="Q24">
+            <v>420</v>
+          </cell>
+          <cell r="R24">
+            <v>9</v>
+          </cell>
+          <cell r="S24">
+            <v>0.3</v>
+          </cell>
+          <cell r="T24">
+            <v>0.05</v>
+          </cell>
+          <cell r="U24" t="str">
+            <v>(0)</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>JPN FCT</v>
+          </cell>
+          <cell r="F35">
+            <v>19</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="H35">
+            <v>310</v>
+          </cell>
+          <cell r="I35">
+            <v>3.6</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>(0.1)</v>
+          </cell>
+          <cell r="K35">
+            <v>3.7</v>
+          </cell>
+          <cell r="L35">
+            <v>3.3</v>
+          </cell>
+          <cell r="M35">
+            <v>1.9</v>
+          </cell>
+          <cell r="N35">
+            <v>75</v>
+          </cell>
+          <cell r="O35">
+            <v>74</v>
+          </cell>
+          <cell r="P35">
+            <v>33</v>
+          </cell>
+          <cell r="Q35">
+            <v>1200</v>
+          </cell>
+          <cell r="R35">
+            <v>71</v>
+          </cell>
+          <cell r="S35">
+            <v>0.3</v>
+          </cell>
+          <cell r="T35">
+            <v>0.06</v>
+          </cell>
+          <cell r="U35" t="str">
+            <v>(0)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -31191,30 +31194,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BB5FE80-4CC7-1E4B-8497-54AA6F648BBB}" name="tbl_newItem" displayName="tbl_newItem" ref="A1:V40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="22" headerRowCellStyle="標準 2" dataCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1BB5FE80-4CC7-1E4B-8497-54AA6F648BBB}" name="tbl_newItem" displayName="tbl_newItem" ref="A1:V40" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" headerRowCellStyle="標準 2" dataCellStyle="標準 2">
   <autoFilter ref="A1:V40" xr:uid="{50200597-E480-C845-B79C-F468816B6162}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{AD9E06F1-B595-B04B-9536-B3AC1FABAC75}" name="code1" dataDxfId="21" dataCellStyle="標準 2 2"/>
-    <tableColumn id="2" xr3:uid="{7C9444D0-FFF0-724F-AA46-277540CAF255}" name="code2" dataDxfId="20" dataCellStyle="標準 2 2"/>
-    <tableColumn id="3" xr3:uid="{06F15955-9301-7944-87BF-D64B907631EF}" name="Food_grp" dataDxfId="19" dataCellStyle="標準 2 2"/>
+    <tableColumn id="1" xr3:uid="{AD9E06F1-B595-B04B-9536-B3AC1FABAC75}" name="code1" dataDxfId="19" dataCellStyle="標準 2 2"/>
+    <tableColumn id="2" xr3:uid="{7C9444D0-FFF0-724F-AA46-277540CAF255}" name="code2" dataDxfId="18" dataCellStyle="標準 2 2"/>
+    <tableColumn id="3" xr3:uid="{06F15955-9301-7944-87BF-D64B907631EF}" name="Food_grp" dataDxfId="17" dataCellStyle="標準 2 2"/>
     <tableColumn id="4" xr3:uid="{3176DD6A-B5E2-544A-BA16-DFFF4682AC09}" name="Food_name"/>
-    <tableColumn id="5" xr3:uid="{A4300BD9-190D-B541-9B15-A26A2AA38A2C}" name="出典/URL" dataDxfId="18" dataCellStyle="標準 2 2"/>
-    <tableColumn id="6" xr3:uid="{2921C4E6-937F-BA46-AFA4-84BFB495CD02}" name="Energy" dataDxfId="17" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{22CE6698-B977-6B45-9F59-D7F1993F0A82}" name="Protein" dataDxfId="16" dataCellStyle="標準 2"/>
-    <tableColumn id="8" xr3:uid="{695A063D-5FFB-8842-833E-272965300B13}" name="VITA_RAE" dataDxfId="15" dataCellStyle="標準 2"/>
-    <tableColumn id="9" xr3:uid="{C4CD48E0-DDA2-FF40-BD8A-D114DF9022DB}" name="FE" dataDxfId="14" dataCellStyle="標準 2"/>
-    <tableColumn id="10" xr3:uid="{9F45FB1C-EAD8-7A43-B9CC-528CD3A1BEAB}" name="Fat" dataDxfId="13" dataCellStyle="標準 2"/>
-    <tableColumn id="11" xr3:uid="{644F1664-490E-E948-AC7E-6CF8163BFDA8}" name="Carbohydrate" dataDxfId="12" dataCellStyle="標準 2"/>
-    <tableColumn id="12" xr3:uid="{45A79485-5490-C841-B607-8E5375083085}" name="Fiber" dataDxfId="11" dataCellStyle="標準 2"/>
-    <tableColumn id="13" xr3:uid="{EAFFC5D0-81B9-B44C-8BB8-48CEAB63B8FF}" name="ASH" dataDxfId="10" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{B9C13A9B-A138-8141-981A-4B0E129ECD8F}" name="CA" dataDxfId="9" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{0914D1AF-16DC-404F-84D9-7C6E7749C31F}" name="MG" dataDxfId="8" dataCellStyle="標準 2"/>
-    <tableColumn id="16" xr3:uid="{FAD5AE3C-9E46-F441-8231-95C5B55DDA50}" name="P" dataDxfId="7" dataCellStyle="標準 2"/>
-    <tableColumn id="17" xr3:uid="{3712D8BF-0DC0-6C48-A0C7-3A00AF8F0A75}" name="K" dataDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="18" xr3:uid="{99D74ED2-913A-4C45-ABE8-40168C87D63B}" name="NA" dataDxfId="5" dataCellStyle="標準 2"/>
-    <tableColumn id="19" xr3:uid="{A250F06B-92DA-0C42-AD26-77D650D0C002}" name="ZN" dataDxfId="4" dataCellStyle="標準 2"/>
-    <tableColumn id="20" xr3:uid="{4486A7D4-6D22-7142-9E5A-6CD0872CFE56}" name="CU" dataDxfId="3" dataCellStyle="標準 2"/>
-    <tableColumn id="21" xr3:uid="{01D6DF7C-806A-F343-B5B7-921F05DD2410}" name="RETOL" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A4300BD9-190D-B541-9B15-A26A2AA38A2C}" name="出典/URL" dataDxfId="16" dataCellStyle="標準 2 2"/>
+    <tableColumn id="6" xr3:uid="{2921C4E6-937F-BA46-AFA4-84BFB495CD02}" name="Energy" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{22CE6698-B977-6B45-9F59-D7F1993F0A82}" name="Protein" dataDxfId="14" dataCellStyle="標準 2"/>
+    <tableColumn id="8" xr3:uid="{695A063D-5FFB-8842-833E-272965300B13}" name="VITA_RAE" dataDxfId="13" dataCellStyle="標準 2"/>
+    <tableColumn id="9" xr3:uid="{C4CD48E0-DDA2-FF40-BD8A-D114DF9022DB}" name="FE" dataDxfId="12" dataCellStyle="標準 2"/>
+    <tableColumn id="10" xr3:uid="{9F45FB1C-EAD8-7A43-B9CC-528CD3A1BEAB}" name="Fat" dataDxfId="11" dataCellStyle="標準 2"/>
+    <tableColumn id="11" xr3:uid="{644F1664-490E-E948-AC7E-6CF8163BFDA8}" name="Carbohydrate" dataDxfId="10" dataCellStyle="標準 2"/>
+    <tableColumn id="12" xr3:uid="{45A79485-5490-C841-B607-8E5375083085}" name="Fiber" dataDxfId="9" dataCellStyle="標準 2"/>
+    <tableColumn id="13" xr3:uid="{EAFFC5D0-81B9-B44C-8BB8-48CEAB63B8FF}" name="ASH" dataDxfId="8" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{B9C13A9B-A138-8141-981A-4B0E129ECD8F}" name="CA" dataDxfId="7" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{0914D1AF-16DC-404F-84D9-7C6E7749C31F}" name="MG" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="16" xr3:uid="{FAD5AE3C-9E46-F441-8231-95C5B55DDA50}" name="P" dataDxfId="5" dataCellStyle="標準 2"/>
+    <tableColumn id="17" xr3:uid="{3712D8BF-0DC0-6C48-A0C7-3A00AF8F0A75}" name="K" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="18" xr3:uid="{99D74ED2-913A-4C45-ABE8-40168C87D63B}" name="NA" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="19" xr3:uid="{A250F06B-92DA-0C42-AD26-77D650D0C002}" name="ZN" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="20" xr3:uid="{4486A7D4-6D22-7142-9E5A-6CD0872CFE56}" name="CU" dataDxfId="1" dataCellStyle="標準 2"/>
+    <tableColumn id="21" xr3:uid="{01D6DF7C-806A-F343-B5B7-921F05DD2410}" name="RETOL" dataDxfId="0" dataCellStyle="標準 2"/>
     <tableColumn id="22" xr3:uid="{A97581DF-C685-9443-8B6A-95991C4A9125}" name="Comment" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -31615,8 +31618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -61729,7 +61732,7 @@
         <v>238</v>
       </c>
       <c r="E308" t="s">
-        <v>370</v>
+        <v>751</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -97052,71 +97055,71 @@
         <v>527</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>'[1]JPN FCT'!E2</f>
+        <f>'[2]JPN FCT'!E2</f>
         <v>JPN FCT</v>
       </c>
       <c r="F2" s="7">
-        <f>'[1]JPN FCT'!F2</f>
+        <f>'[2]JPN FCT'!F2</f>
         <v>340</v>
       </c>
       <c r="G2" s="7">
-        <f>'[1]JPN FCT'!G2</f>
+        <f>'[2]JPN FCT'!G2</f>
         <v>5.4</v>
       </c>
       <c r="H2" s="7" t="str">
-        <f>'[1]JPN FCT'!H2</f>
+        <f>'[2]JPN FCT'!H2</f>
         <v>(0)</v>
       </c>
       <c r="I2" s="7" t="str">
-        <f>'[1]JPN FCT'!I2</f>
+        <f>'[2]JPN FCT'!I2</f>
         <v>1.0</v>
       </c>
       <c r="J2" s="19" t="str">
-        <f>'[1]JPN FCT'!J2</f>
+        <f>'[2]JPN FCT'!J2</f>
         <v>(1.1)</v>
       </c>
       <c r="K2" s="19">
-        <f>'[1]JPN FCT'!K2</f>
+        <f>'[2]JPN FCT'!K2</f>
         <v>77.8</v>
       </c>
       <c r="L2" s="19">
-        <f>'[1]JPN FCT'!L2</f>
+        <f>'[2]JPN FCT'!L2</f>
         <v>9.6</v>
       </c>
       <c r="M2" s="19">
-        <f>'[1]JPN FCT'!M2</f>
+        <f>'[2]JPN FCT'!M2</f>
         <v>0.7</v>
       </c>
       <c r="N2" s="19">
-        <f>'[1]JPN FCT'!N2</f>
+        <f>'[2]JPN FCT'!N2</f>
         <v>17</v>
       </c>
       <c r="O2" s="19">
-        <f>'[1]JPN FCT'!O2</f>
+        <f>'[2]JPN FCT'!O2</f>
         <v>25</v>
       </c>
       <c r="P2" s="19">
-        <f>'[1]JPN FCT'!P2</f>
+        <f>'[2]JPN FCT'!P2</f>
         <v>110</v>
       </c>
       <c r="Q2" s="19">
-        <f>'[1]JPN FCT'!Q2</f>
+        <f>'[2]JPN FCT'!Q2</f>
         <v>170</v>
       </c>
       <c r="R2" s="19">
-        <f>'[1]JPN FCT'!R2</f>
+        <f>'[2]JPN FCT'!R2</f>
         <v>2</v>
       </c>
       <c r="S2" s="19">
-        <f>'[1]JPN FCT'!S2</f>
+        <f>'[2]JPN FCT'!S2</f>
         <v>1.2</v>
       </c>
       <c r="T2" s="19" t="str">
-        <f>'[1]JPN FCT'!T2</f>
+        <f>'[2]JPN FCT'!T2</f>
         <v>0.40</v>
       </c>
       <c r="U2" s="19" t="str">
-        <f>'[1]JPN FCT'!U2</f>
+        <f>'[2]JPN FCT'!U2</f>
         <v>(0)</v>
       </c>
     </row>
@@ -97134,71 +97137,71 @@
         <v>526</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f>'[1]JPN FCT'!E3</f>
+        <f>'[2]JPN FCT'!E3</f>
         <v>JPN FCT</v>
       </c>
       <c r="F3" s="7">
-        <f>'[1]JPN FCT'!F3</f>
+        <f>'[2]JPN FCT'!F3</f>
         <v>41</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>'[1]JPN FCT'!G3</f>
+        <f>'[2]JPN FCT'!G3</f>
         <v>(1.0)</v>
       </c>
       <c r="H3" s="7" t="str">
-        <f>'[1]JPN FCT'!H3</f>
+        <f>'[2]JPN FCT'!H3</f>
         <v>(0)</v>
       </c>
       <c r="I3" s="7">
-        <f>'[1]JPN FCT'!I3</f>
+        <f>'[2]JPN FCT'!I3</f>
         <v>0.4</v>
       </c>
       <c r="J3" s="19" t="str">
-        <f>'[1]JPN FCT'!J3</f>
+        <f>'[2]JPN FCT'!J3</f>
         <v>(0.1)</v>
       </c>
       <c r="K3" s="19">
-        <f>'[1]JPN FCT'!K3</f>
+        <f>'[2]JPN FCT'!K3</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="L3" s="19">
-        <f>'[1]JPN FCT'!L3</f>
+        <f>'[2]JPN FCT'!L3</f>
         <v>2.7</v>
       </c>
       <c r="M3" s="19">
-        <f>'[1]JPN FCT'!M3</f>
+        <f>'[2]JPN FCT'!M3</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N3" s="19">
-        <f>'[1]JPN FCT'!N3</f>
+        <f>'[2]JPN FCT'!N3</f>
         <v>12</v>
       </c>
       <c r="O3" s="19">
-        <f>'[1]JPN FCT'!O3</f>
+        <f>'[2]JPN FCT'!O3</f>
         <v>18</v>
       </c>
       <c r="P3" s="19">
-        <f>'[1]JPN FCT'!P3</f>
+        <f>'[2]JPN FCT'!P3</f>
         <v>23</v>
       </c>
       <c r="Q3" s="19">
-        <f>'[1]JPN FCT'!Q3</f>
+        <f>'[2]JPN FCT'!Q3</f>
         <v>460</v>
       </c>
       <c r="R3" s="19">
-        <f>'[1]JPN FCT'!R3</f>
+        <f>'[2]JPN FCT'!R3</f>
         <v>30</v>
       </c>
       <c r="S3" s="19">
-        <f>'[1]JPN FCT'!S3</f>
+        <f>'[2]JPN FCT'!S3</f>
         <v>0.3</v>
       </c>
       <c r="T3" s="19">
-        <f>'[1]JPN FCT'!T3</f>
+        <f>'[2]JPN FCT'!T3</f>
         <v>0.09</v>
       </c>
       <c r="U3" s="19" t="str">
-        <f>'[1]JPN FCT'!U3</f>
+        <f>'[2]JPN FCT'!U3</f>
         <v>(0)</v>
       </c>
     </row>
@@ -97373,71 +97376,71 @@
         <v>518</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f>'[1]INFOOD-WAFCT'!E7</f>
+        <f>'[2]INFOOD-WAFCT'!E7</f>
         <v>INFOOD-WAFCT</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!F7</f>
+        <f>'[2]INFOOD-WAFCT'!F7</f>
         <v>149</v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!G7</f>
+        <f>'[2]INFOOD-WAFCT'!G7</f>
         <v>19.9</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!H7</f>
+        <f>'[2]INFOOD-WAFCT'!H7</f>
         <v>1</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!I7</f>
+        <f>'[2]INFOOD-WAFCT'!I7</f>
         <v>3.2</v>
       </c>
       <c r="J7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!J7</f>
+        <f>'[2]INFOOD-WAFCT'!J7</f>
         <v>7.7</v>
       </c>
       <c r="K7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!K7</f>
+        <f>'[2]INFOOD-WAFCT'!K7</f>
         <v>0</v>
       </c>
       <c r="L7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!L7</f>
+        <f>'[2]INFOOD-WAFCT'!L7</f>
         <v>0</v>
       </c>
       <c r="M7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!M7</f>
+        <f>'[2]INFOOD-WAFCT'!M7</f>
         <v>1.1</v>
       </c>
       <c r="N7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!N7</f>
+        <f>'[2]INFOOD-WAFCT'!N7</f>
         <v>10</v>
       </c>
       <c r="O7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!O7</f>
+        <f>'[2]INFOOD-WAFCT'!O7</f>
         <v>19</v>
       </c>
       <c r="P7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!P7</f>
+        <f>'[2]INFOOD-WAFCT'!P7</f>
         <v>187</v>
       </c>
       <c r="Q7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!Q7</f>
+        <f>'[2]INFOOD-WAFCT'!Q7</f>
         <v>243</v>
       </c>
       <c r="R7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!R7</f>
+        <f>'[2]INFOOD-WAFCT'!R7</f>
         <v>70</v>
       </c>
       <c r="S7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!S7</f>
+        <f>'[2]INFOOD-WAFCT'!S7</f>
         <v>3.55</v>
       </c>
       <c r="T7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!T7</f>
+        <f>'[2]INFOOD-WAFCT'!T7</f>
         <v>0.16</v>
       </c>
       <c r="U7" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!U7</f>
+        <f>'[2]INFOOD-WAFCT'!U7</f>
         <v>0</v>
       </c>
     </row>
@@ -97591,71 +97594,71 @@
         <v>513</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>'[1]INFOOD-Pulses'!E10</f>
+        <f>'[2]INFOOD-Pulses'!E10</f>
         <v>INFOOD-Pulses</v>
       </c>
       <c r="F10" s="17">
-        <f>'[1]INFOOD-Pulses'!F10</f>
+        <f>'[2]INFOOD-Pulses'!F10</f>
         <v>337.19326971187132</v>
       </c>
       <c r="G10" s="17">
-        <f>'[1]INFOOD-Pulses'!G10</f>
+        <f>'[2]INFOOD-Pulses'!G10</f>
         <v>20.39087880480599</v>
       </c>
       <c r="H10" s="17">
-        <f>'[1]INFOOD-Pulses'!H10</f>
+        <f>'[2]INFOOD-Pulses'!H10</f>
         <v>4.5287923021792205</v>
       </c>
       <c r="I10" s="17">
-        <f>'[1]INFOOD-Pulses'!I10</f>
+        <f>'[2]INFOOD-Pulses'!I10</f>
         <v>6.5802059045513985</v>
       </c>
       <c r="J10" s="16">
-        <f>'[1]INFOOD-Pulses'!J10</f>
+        <f>'[2]INFOOD-Pulses'!J10</f>
         <v>5.1521409550561801</v>
       </c>
       <c r="K10" s="16">
-        <f>'[1]INFOOD-Pulses'!K10</f>
+        <f>'[2]INFOOD-Pulses'!K10</f>
         <v>41.954982215026178</v>
       </c>
       <c r="L10" s="16">
-        <f>'[1]INFOOD-Pulses'!L10</f>
+        <f>'[2]INFOOD-Pulses'!L10</f>
         <v>20.720278518518519</v>
       </c>
       <c r="M10" s="16">
-        <f>'[1]INFOOD-Pulses'!M10</f>
+        <f>'[2]INFOOD-Pulses'!M10</f>
         <v>2.8215445424692112</v>
       </c>
       <c r="N10" s="16">
-        <f>'[1]INFOOD-Pulses'!N10</f>
+        <f>'[2]INFOOD-Pulses'!N10</f>
         <v>121.1388257912717</v>
       </c>
       <c r="O10" s="16">
-        <f>'[1]INFOOD-Pulses'!O10</f>
+        <f>'[2]INFOOD-Pulses'!O10</f>
         <v>131.51393227443327</v>
       </c>
       <c r="P10" s="16">
-        <f>'[1]INFOOD-Pulses'!P10</f>
+        <f>'[2]INFOOD-Pulses'!P10</f>
         <v>264.39582201941204</v>
       </c>
       <c r="Q10" s="16">
-        <f>'[1]INFOOD-Pulses'!Q10</f>
+        <f>'[2]INFOOD-Pulses'!Q10</f>
         <v>819.09471361537203</v>
       </c>
       <c r="R10" s="16">
-        <f>'[1]INFOOD-Pulses'!R10</f>
+        <f>'[2]INFOOD-Pulses'!R10</f>
         <v>11.778044855555555</v>
       </c>
       <c r="S10" s="16">
-        <f>'[1]INFOOD-Pulses'!S10</f>
+        <f>'[2]INFOOD-Pulses'!S10</f>
         <v>3.1170697093157109</v>
       </c>
       <c r="T10" s="16">
-        <f>'[1]INFOOD-Pulses'!T10</f>
+        <f>'[2]INFOOD-Pulses'!T10</f>
         <v>0.44477148025084778</v>
       </c>
       <c r="U10" s="16">
-        <f>'[1]INFOOD-Pulses'!U10</f>
+        <f>'[2]INFOOD-Pulses'!U10</f>
         <v>0</v>
       </c>
     </row>
@@ -97772,71 +97775,71 @@
         <v>508</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>'[1]INFOOD-Pulses'!E13</f>
+        <f>'[2]INFOOD-Pulses'!E13</f>
         <v>INFOOD-Pulses</v>
       </c>
       <c r="F13" s="17">
-        <f>'[1]INFOOD-Pulses'!F13</f>
+        <f>'[2]INFOOD-Pulses'!F13</f>
         <v>308.58325217929291</v>
       </c>
       <c r="G13" s="17">
-        <f>'[1]INFOOD-Pulses'!G13</f>
+        <f>'[2]INFOOD-Pulses'!G13</f>
         <v>25.343637519740259</v>
       </c>
       <c r="H13" s="17">
-        <f>'[1]INFOOD-Pulses'!H13</f>
+        <f>'[2]INFOOD-Pulses'!H13</f>
         <v>2.3774962478818691</v>
       </c>
       <c r="I13" s="17">
-        <f>'[1]INFOOD-Pulses'!I13</f>
+        <f>'[2]INFOOD-Pulses'!I13</f>
         <v>5.1881386000000003</v>
       </c>
       <c r="J13" s="16">
-        <f>'[1]INFOOD-Pulses'!J13</f>
+        <f>'[2]INFOOD-Pulses'!J13</f>
         <v>1.3640884722222224</v>
       </c>
       <c r="K13" s="16">
-        <f>'[1]INFOOD-Pulses'!K13</f>
+        <f>'[2]INFOOD-Pulses'!K13</f>
         <v>38.349884795916303</v>
       </c>
       <c r="L13" s="16">
-        <f>'[1]INFOOD-Pulses'!L13</f>
+        <f>'[2]INFOOD-Pulses'!L13</f>
         <v>20.766183333333334</v>
       </c>
       <c r="M13" s="16">
-        <f>'[1]INFOOD-Pulses'!M13</f>
+        <f>'[2]INFOOD-Pulses'!M13</f>
         <v>3.2855013333333329</v>
       </c>
       <c r="N13" s="16">
-        <f>'[1]INFOOD-Pulses'!N13</f>
+        <f>'[2]INFOOD-Pulses'!N13</f>
         <v>95.641565714285704</v>
       </c>
       <c r="O13" s="16">
-        <f>'[1]INFOOD-Pulses'!O13</f>
+        <f>'[2]INFOOD-Pulses'!O13</f>
         <v>135.49333139999999</v>
       </c>
       <c r="P13" s="16">
-        <f>'[1]INFOOD-Pulses'!P13</f>
+        <f>'[2]INFOOD-Pulses'!P13</f>
         <v>430.57531433333332</v>
       </c>
       <c r="Q13" s="16">
-        <f>'[1]INFOOD-Pulses'!Q13</f>
+        <f>'[2]INFOOD-Pulses'!Q13</f>
         <v>1190</v>
       </c>
       <c r="R13" s="16">
-        <f>'[1]INFOOD-Pulses'!R13</f>
+        <f>'[2]INFOOD-Pulses'!R13</f>
         <v>25.034634000000004</v>
       </c>
       <c r="S13" s="16">
-        <f>'[1]INFOOD-Pulses'!S13</f>
+        <f>'[2]INFOOD-Pulses'!S13</f>
         <v>3.54913466</v>
       </c>
       <c r="T13" s="16">
-        <f>'[1]INFOOD-Pulses'!T13</f>
+        <f>'[2]INFOOD-Pulses'!T13</f>
         <v>0.82199999999999995</v>
       </c>
       <c r="U13" s="16">
-        <f>'[1]INFOOD-Pulses'!U13</f>
+        <f>'[2]INFOOD-Pulses'!U13</f>
         <v>0</v>
       </c>
     </row>
@@ -97953,71 +97956,71 @@
         <v>505</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>'[1]INFOOD-WAFCT'!E16</f>
+        <f>'[2]INFOOD-WAFCT'!E16</f>
         <v>INFOOD-WAFCT</v>
       </c>
       <c r="F16" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!F16</f>
+        <f>'[2]INFOOD-WAFCT'!F16</f>
         <v>365</v>
       </c>
       <c r="G16" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!G16</f>
+        <f>'[2]INFOOD-WAFCT'!G16</f>
         <v>9.3</v>
       </c>
       <c r="H16" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!H16</f>
+        <f>'[2]INFOOD-WAFCT'!H16</f>
         <v>0</v>
       </c>
       <c r="I16" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!I16</f>
+        <f>'[2]INFOOD-WAFCT'!I16</f>
         <v>15.2</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!J16</f>
+        <f>'[2]INFOOD-WAFCT'!J16</f>
         <v>5.9</v>
       </c>
       <c r="K16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!K16</f>
+        <f>'[2]INFOOD-WAFCT'!K16</f>
         <v>64.2</v>
       </c>
       <c r="L16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!L16</f>
+        <f>'[2]INFOOD-WAFCT'!L16</f>
         <v>9.0</v>
       </c>
       <c r="M16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!M16</f>
+        <f>'[2]INFOOD-WAFCT'!M16</f>
         <v>2.1</v>
       </c>
       <c r="N16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!N16</f>
+        <f>'[2]INFOOD-WAFCT'!N16</f>
         <v>23</v>
       </c>
       <c r="O16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!O16</f>
+        <f>'[2]INFOOD-WAFCT'!O16</f>
         <v>96</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!P16</f>
+        <f>'[2]INFOOD-WAFCT'!P16</f>
         <v>402</v>
       </c>
       <c r="Q16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!Q16</f>
+        <f>'[2]INFOOD-WAFCT'!Q16</f>
         <v>332</v>
       </c>
       <c r="R16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!R16</f>
+        <f>'[2]INFOOD-WAFCT'!R16</f>
         <v>12</v>
       </c>
       <c r="S16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!S16</f>
+        <f>'[2]INFOOD-WAFCT'!S16</f>
         <v>2.58</v>
       </c>
       <c r="T16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!T16</f>
+        <f>'[2]INFOOD-WAFCT'!T16</f>
         <v>0.45</v>
       </c>
       <c r="U16" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!U16</f>
+        <f>'[2]INFOOD-WAFCT'!U16</f>
         <v>0</v>
       </c>
     </row>
@@ -98035,71 +98038,71 @@
         <v>503</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f>'[1]INFOOD-WAFCT'!E17</f>
+        <f>'[2]INFOOD-WAFCT'!E17</f>
         <v>INFOOD-WAFCT</v>
       </c>
       <c r="F17" s="7">
-        <f>'[1]INFOOD-WAFCT'!F17</f>
+        <f>'[2]INFOOD-WAFCT'!F17</f>
         <v>316</v>
       </c>
       <c r="G17" s="7">
-        <f>'[1]INFOOD-WAFCT'!G17</f>
+        <f>'[2]INFOOD-WAFCT'!G17</f>
         <v>60.4</v>
       </c>
       <c r="H17" s="7">
-        <f>'[1]INFOOD-WAFCT'!H17</f>
+        <f>'[2]INFOOD-WAFCT'!H17</f>
         <v>141</v>
       </c>
       <c r="I17" s="7">
-        <f>'[1]INFOOD-WAFCT'!I17</f>
+        <f>'[2]INFOOD-WAFCT'!I17</f>
         <v>7.4</v>
       </c>
       <c r="J17" s="19">
-        <f>'[1]INFOOD-WAFCT'!J17</f>
+        <f>'[2]INFOOD-WAFCT'!J17</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="K17" s="19">
-        <f>'[1]INFOOD-WAFCT'!K17</f>
+        <f>'[2]INFOOD-WAFCT'!K17</f>
         <v>0</v>
       </c>
       <c r="L17" s="19">
-        <f>'[1]INFOOD-WAFCT'!L17</f>
+        <f>'[2]INFOOD-WAFCT'!L17</f>
         <v>0</v>
       </c>
       <c r="M17" s="19">
-        <f>'[1]INFOOD-WAFCT'!M17</f>
+        <f>'[2]INFOOD-WAFCT'!M17</f>
         <v>7.1</v>
       </c>
       <c r="N17" s="19">
-        <f>'[1]INFOOD-WAFCT'!N17</f>
+        <f>'[2]INFOOD-WAFCT'!N17</f>
         <v>1939</v>
       </c>
       <c r="O17" s="19">
-        <f>'[1]INFOOD-WAFCT'!O17</f>
+        <f>'[2]INFOOD-WAFCT'!O17</f>
         <v>75</v>
       </c>
       <c r="P17" s="19">
-        <f>'[1]INFOOD-WAFCT'!P17</f>
+        <f>'[2]INFOOD-WAFCT'!P17</f>
         <v>1525</v>
       </c>
       <c r="Q17" s="19">
-        <f>'[1]INFOOD-WAFCT'!Q17</f>
+        <f>'[2]INFOOD-WAFCT'!Q17</f>
         <v>707</v>
       </c>
       <c r="R17" s="19">
-        <f>'[1]INFOOD-WAFCT'!R17</f>
+        <f>'[2]INFOOD-WAFCT'!R17</f>
         <v>147</v>
       </c>
       <c r="S17" s="19">
-        <f>'[1]INFOOD-WAFCT'!S17</f>
+        <f>'[2]INFOOD-WAFCT'!S17</f>
         <v>7.67</v>
       </c>
       <c r="T17" s="19">
-        <f>'[1]INFOOD-WAFCT'!T17</f>
+        <f>'[2]INFOOD-WAFCT'!T17</f>
         <v>0.2</v>
       </c>
       <c r="U17" s="19">
-        <f>'[1]INFOOD-WAFCT'!U17</f>
+        <f>'[2]INFOOD-WAFCT'!U17</f>
         <v>141</v>
       </c>
     </row>
@@ -98321,71 +98324,71 @@
         <v>496</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>'[1]INFOOD-Pulses'!E22</f>
+        <f>'[2]INFOOD-Pulses'!E22</f>
         <v>INFOOD-Pulses</v>
       </c>
       <c r="F22" s="17">
-        <f>'[1]INFOOD-Pulses'!F22</f>
+        <f>'[2]INFOOD-Pulses'!F22</f>
         <v>311.00857754010696</v>
       </c>
       <c r="G22" s="17">
-        <f>'[1]INFOOD-Pulses'!G22</f>
+        <f>'[2]INFOOD-Pulses'!G22</f>
         <v>21.826329999999999</v>
       </c>
       <c r="H22" s="17">
-        <f>'[1]INFOOD-Pulses'!H22</f>
+        <f>'[2]INFOOD-Pulses'!H22</f>
         <v>0</v>
       </c>
       <c r="I22" s="17">
-        <f>'[1]INFOOD-Pulses'!I22</f>
+        <f>'[2]INFOOD-Pulses'!I22</f>
         <v>8.01</v>
       </c>
       <c r="J22" s="16">
-        <f>'[1]INFOOD-Pulses'!J22</f>
+        <f>'[2]INFOOD-Pulses'!J22</f>
         <v>1.7770545454545454</v>
       </c>
       <c r="K22" s="16">
-        <f>'[1]INFOOD-Pulses'!K22</f>
+        <f>'[2]INFOOD-Pulses'!K22</f>
         <v>42.617441657754014</v>
       </c>
       <c r="L22" s="16">
-        <f>'[1]INFOOD-Pulses'!L22</f>
+        <f>'[2]INFOOD-Pulses'!L22</f>
         <v>18.62</v>
       </c>
       <c r="M22" s="16">
-        <f>'[1]INFOOD-Pulses'!M22</f>
+        <f>'[2]INFOOD-Pulses'!M22</f>
         <v>3.7274090909090902</v>
       </c>
       <c r="N22" s="16">
-        <f>'[1]INFOOD-Pulses'!N22</f>
+        <f>'[2]INFOOD-Pulses'!N22</f>
         <v>141.46899999999999</v>
       </c>
       <c r="O22" s="16">
-        <f>'[1]INFOOD-Pulses'!O22</f>
+        <f>'[2]INFOOD-Pulses'!O22</f>
         <v>165.52885714285713</v>
       </c>
       <c r="P22" s="16">
-        <f>'[1]INFOOD-Pulses'!P22</f>
+        <f>'[2]INFOOD-Pulses'!P22</f>
         <v>403.94</v>
       </c>
       <c r="Q22" s="16">
-        <f>'[1]INFOOD-Pulses'!Q22</f>
+        <f>'[2]INFOOD-Pulses'!Q22</f>
         <v>1340</v>
       </c>
       <c r="R22" s="16">
-        <f>'[1]INFOOD-Pulses'!R22</f>
+        <f>'[2]INFOOD-Pulses'!R22</f>
         <v>16.657142857142855</v>
       </c>
       <c r="S22" s="16">
-        <f>'[1]INFOOD-Pulses'!S22</f>
+        <f>'[2]INFOOD-Pulses'!S22</f>
         <v>2.9115085714285711</v>
       </c>
       <c r="T22" s="16">
-        <f>'[1]INFOOD-Pulses'!T22</f>
+        <f>'[2]INFOOD-Pulses'!T22</f>
         <v>1.0271999999999999</v>
       </c>
       <c r="U22" s="16">
-        <f>'[1]INFOOD-Pulses'!U22</f>
+        <f>'[2]INFOOD-Pulses'!U22</f>
         <v>0</v>
       </c>
     </row>
@@ -98439,71 +98442,71 @@
         <v>494</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>'[1]JPN FCT'!E24</f>
+        <f>'[2]JPN FCT'!E24</f>
         <v>JPN FCT</v>
       </c>
       <c r="F24" s="7">
-        <f>'[1]JPN FCT'!F24</f>
+        <f>'[2]JPN FCT'!F24</f>
         <v>28</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>'[1]JPN FCT'!G24</f>
+        <f>'[2]JPN FCT'!G24</f>
         <v>(1.6)</v>
       </c>
       <c r="H24" s="7">
-        <f>'[1]JPN FCT'!H24</f>
+        <f>'[2]JPN FCT'!H24</f>
         <v>240</v>
       </c>
       <c r="I24" s="7">
-        <f>'[1]JPN FCT'!I24</f>
+        <f>'[2]JPN FCT'!I24</f>
         <v>0.8</v>
       </c>
       <c r="J24" s="19">
-        <f>'[1]JPN FCT'!J24</f>
+        <f>'[2]JPN FCT'!J24</f>
         <v>0.1</v>
       </c>
       <c r="K24" s="19">
-        <f>'[1]JPN FCT'!K24</f>
+        <f>'[2]JPN FCT'!K24</f>
         <v>5.6</v>
       </c>
       <c r="L24" s="19">
-        <f>'[1]JPN FCT'!L24</f>
+        <f>'[2]JPN FCT'!L24</f>
         <v>3.7</v>
       </c>
       <c r="M24" s="19">
-        <f>'[1]JPN FCT'!M24</f>
+        <f>'[2]JPN FCT'!M24</f>
         <v>1.5</v>
       </c>
       <c r="N24" s="19">
-        <f>'[1]JPN FCT'!N24</f>
+        <f>'[2]JPN FCT'!N24</f>
         <v>220</v>
       </c>
       <c r="O24" s="19">
-        <f>'[1]JPN FCT'!O24</f>
+        <f>'[2]JPN FCT'!O24</f>
         <v>44</v>
       </c>
       <c r="P24" s="19">
-        <f>'[1]JPN FCT'!P24</f>
+        <f>'[2]JPN FCT'!P24</f>
         <v>45</v>
       </c>
       <c r="Q24" s="19">
-        <f>'[1]JPN FCT'!Q24</f>
+        <f>'[2]JPN FCT'!Q24</f>
         <v>420</v>
       </c>
       <c r="R24" s="19">
-        <f>'[1]JPN FCT'!R24</f>
+        <f>'[2]JPN FCT'!R24</f>
         <v>9</v>
       </c>
       <c r="S24" s="19">
-        <f>'[1]JPN FCT'!S24</f>
+        <f>'[2]JPN FCT'!S24</f>
         <v>0.3</v>
       </c>
       <c r="T24" s="19">
-        <f>'[1]JPN FCT'!T24</f>
+        <f>'[2]JPN FCT'!T24</f>
         <v>0.05</v>
       </c>
       <c r="U24" s="19" t="str">
-        <f>'[1]JPN FCT'!U24</f>
+        <f>'[2]JPN FCT'!U24</f>
         <v>(0)</v>
       </c>
     </row>
@@ -98521,71 +98524,71 @@
         <v>493</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f>'[1]INFOOD-Pulses'!E25</f>
+        <f>'[2]INFOOD-Pulses'!E25</f>
         <v>INFOOD-Pulses</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!F25</f>
+        <f>'[2]INFOOD-WAFCT'!F25</f>
         <v>98</v>
       </c>
       <c r="G25" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!G25</f>
+        <f>'[2]INFOOD-WAFCT'!G25</f>
         <v>16.4</v>
       </c>
       <c r="H25" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!H25</f>
+        <f>'[2]INFOOD-WAFCT'!H25</f>
         <v>131</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>'[1]INFOOD-WAFCT'!I25</f>
+        <f>'[2]INFOOD-WAFCT'!I25</f>
         <v>4.1</v>
       </c>
       <c r="J25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!J25</f>
+        <f>'[2]INFOOD-WAFCT'!J25</f>
         <v>3.6</v>
       </c>
       <c r="K25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!K25</f>
+        <f>'[2]INFOOD-WAFCT'!K25</f>
         <v>0</v>
       </c>
       <c r="L25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!L25</f>
+        <f>'[2]INFOOD-WAFCT'!L25</f>
         <v>0</v>
       </c>
       <c r="M25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!M25</f>
+        <f>'[2]INFOOD-WAFCT'!M25</f>
         <v>1.1</v>
       </c>
       <c r="N25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!N25</f>
+        <f>'[2]INFOOD-WAFCT'!N25</f>
         <v>6</v>
       </c>
       <c r="O25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!O25</f>
+        <f>'[2]INFOOD-WAFCT'!O25</f>
         <v>17</v>
       </c>
       <c r="P25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!P25</f>
+        <f>'[2]INFOOD-WAFCT'!P25</f>
         <v>210</v>
       </c>
       <c r="Q25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!Q25</f>
+        <f>'[2]INFOOD-WAFCT'!Q25</f>
         <v>257</v>
       </c>
       <c r="R25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!R25</f>
+        <f>'[2]INFOOD-WAFCT'!R25</f>
         <v>179</v>
       </c>
       <c r="S25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!S25</f>
+        <f>'[2]INFOOD-WAFCT'!S25</f>
         <v>2.62</v>
       </c>
       <c r="T25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!T25</f>
+        <f>'[2]INFOOD-WAFCT'!T25</f>
         <v>0.47</v>
       </c>
       <c r="U25" s="19" t="str">
-        <f>'[1]INFOOD-WAFCT'!U25</f>
+        <f>'[2]INFOOD-WAFCT'!U25</f>
         <v>98</v>
       </c>
     </row>
@@ -98727,71 +98730,71 @@
         <v>488</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f>'[1]INFOOD-Pulses'!E28</f>
+        <f>'[2]INFOOD-Pulses'!E28</f>
         <v>INFOOD-Pulses</v>
       </c>
       <c r="F28" s="17">
-        <f>'[1]INFOOD-Pulses'!F28</f>
+        <f>'[2]INFOOD-Pulses'!F28</f>
         <v>324.91055986325625</v>
       </c>
       <c r="G28" s="17">
-        <f>'[1]INFOOD-Pulses'!G28</f>
+        <f>'[2]INFOOD-Pulses'!G28</f>
         <v>20.948678958844134</v>
       </c>
       <c r="H28" s="17">
-        <f>'[1]INFOOD-Pulses'!H28</f>
+        <f>'[2]INFOOD-Pulses'!H28</f>
         <v>7.0579916666666662</v>
       </c>
       <c r="I28" s="17">
-        <f>'[1]INFOOD-Pulses'!I28</f>
+        <f>'[2]INFOOD-Pulses'!I28</f>
         <v>4.4225523529411754</v>
       </c>
       <c r="J28" s="16">
-        <f>'[1]INFOOD-Pulses'!J28</f>
+        <f>'[2]INFOOD-Pulses'!J28</f>
         <v>1.3467762592592594</v>
       </c>
       <c r="K28" s="16">
-        <f>'[1]INFOOD-Pulses'!K28</f>
+        <f>'[2]INFOOD-Pulses'!K28</f>
         <v>49.563096090303254</v>
       </c>
       <c r="L28" s="16">
-        <f>'[1]INFOOD-Pulses'!L28</f>
+        <f>'[2]INFOOD-Pulses'!L28</f>
         <v>15.371236666666666</v>
       </c>
       <c r="M28" s="16">
-        <f>'[1]INFOOD-Pulses'!M28</f>
+        <f>'[2]INFOOD-Pulses'!M28</f>
         <v>3.0995668636363636</v>
       </c>
       <c r="N28" s="16">
-        <f>'[1]INFOOD-Pulses'!N28</f>
+        <f>'[2]INFOOD-Pulses'!N28</f>
         <v>89.430800000000005</v>
       </c>
       <c r="O28" s="16">
-        <f>'[1]INFOOD-Pulses'!O28</f>
+        <f>'[2]INFOOD-Pulses'!O28</f>
         <v>139.42807692307696</v>
       </c>
       <c r="P28" s="16">
-        <f>'[1]INFOOD-Pulses'!P28</f>
+        <f>'[2]INFOOD-Pulses'!P28</f>
         <v>350.39132000000001</v>
       </c>
       <c r="Q28" s="16">
-        <f>'[1]INFOOD-Pulses'!Q28</f>
+        <f>'[2]INFOOD-Pulses'!Q28</f>
         <v>1180</v>
       </c>
       <c r="R28" s="16">
-        <f>'[1]INFOOD-Pulses'!R28</f>
+        <f>'[2]INFOOD-Pulses'!R28</f>
         <v>9.0934538461538459</v>
       </c>
       <c r="S28" s="16">
-        <f>'[1]INFOOD-Pulses'!S28</f>
+        <f>'[2]INFOOD-Pulses'!S28</f>
         <v>1.6243035714285716</v>
       </c>
       <c r="T28" s="16">
-        <f>'[1]INFOOD-Pulses'!T28</f>
+        <f>'[2]INFOOD-Pulses'!T28</f>
         <v>1.1649149999999999</v>
       </c>
       <c r="U28" s="16">
-        <f>'[1]INFOOD-Pulses'!U28</f>
+        <f>'[2]INFOOD-Pulses'!U28</f>
         <v>0</v>
       </c>
     </row>
@@ -98875,71 +98878,71 @@
         <v>484</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f>'[1]INFOOD-WAFCT'!E30</f>
+        <f>'[2]INFOOD-WAFCT'!E30</f>
         <v>INFOOD-WAFCT</v>
       </c>
       <c r="F30" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!F30</f>
+        <f>'[2]INFOOD-WAFCT'!F30</f>
         <v>377</v>
       </c>
       <c r="G30" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!G30</f>
+        <f>'[2]INFOOD-WAFCT'!G30</f>
         <v>11.9</v>
       </c>
       <c r="H30" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!H30</f>
+        <f>'[2]INFOOD-WAFCT'!H30</f>
         <v>0</v>
       </c>
       <c r="I30" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!I30</f>
+        <f>'[2]INFOOD-WAFCT'!I30</f>
         <v>4.4</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!J30</f>
+        <f>'[2]INFOOD-WAFCT'!J30</f>
         <v>7.8</v>
       </c>
       <c r="K30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!K30</f>
+        <f>'[2]INFOOD-WAFCT'!K30</f>
         <v>59.7</v>
       </c>
       <c r="L30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!L30</f>
+        <f>'[2]INFOOD-WAFCT'!L30</f>
         <v>10.2</v>
       </c>
       <c r="M30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!M30</f>
+        <f>'[2]INFOOD-WAFCT'!M30</f>
         <v>1.6</v>
       </c>
       <c r="N30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!N30</f>
+        <f>'[2]INFOOD-WAFCT'!N30</f>
         <v>54</v>
       </c>
       <c r="O30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!O30</f>
+        <f>'[2]INFOOD-WAFCT'!O30</f>
         <v>153</v>
       </c>
       <c r="P30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!P30</f>
+        <f>'[2]INFOOD-WAFCT'!P30</f>
         <v>491</v>
       </c>
       <c r="Q30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!Q30</f>
+        <f>'[2]INFOOD-WAFCT'!Q30</f>
         <v>362</v>
       </c>
       <c r="R30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!R30</f>
+        <f>'[2]INFOOD-WAFCT'!R30</f>
         <v>12</v>
       </c>
       <c r="S30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!S30</f>
+        <f>'[2]INFOOD-WAFCT'!S30</f>
         <v>3.18</v>
       </c>
       <c r="T30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!T30</f>
+        <f>'[2]INFOOD-WAFCT'!T30</f>
         <v>0.36</v>
       </c>
       <c r="U30" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!U30</f>
+        <f>'[2]INFOOD-WAFCT'!U30</f>
         <v>0</v>
       </c>
     </row>
@@ -99128,71 +99131,71 @@
         <v>471</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f>'[1]JPN FCT'!E35</f>
+        <f>'[2]JPN FCT'!E35</f>
         <v>JPN FCT</v>
       </c>
       <c r="F35" s="7">
-        <f>'[1]JPN FCT'!F35</f>
+        <f>'[2]JPN FCT'!F35</f>
         <v>19</v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>'[1]JPN FCT'!G35</f>
+        <f>'[2]JPN FCT'!G35</f>
         <v>-</v>
       </c>
       <c r="H35" s="7">
-        <f>'[1]JPN FCT'!H35</f>
+        <f>'[2]JPN FCT'!H35</f>
         <v>310</v>
       </c>
       <c r="I35" s="7">
-        <f>'[1]JPN FCT'!I35</f>
+        <f>'[2]JPN FCT'!I35</f>
         <v>3.6</v>
       </c>
       <c r="J35" s="19" t="str">
-        <f>'[1]JPN FCT'!J35</f>
+        <f>'[2]JPN FCT'!J35</f>
         <v>(0.1)</v>
       </c>
       <c r="K35" s="19">
-        <f>'[1]JPN FCT'!K35</f>
+        <f>'[2]JPN FCT'!K35</f>
         <v>3.7</v>
       </c>
       <c r="L35" s="19">
-        <f>'[1]JPN FCT'!L35</f>
+        <f>'[2]JPN FCT'!L35</f>
         <v>3.3</v>
       </c>
       <c r="M35" s="19">
-        <f>'[1]JPN FCT'!M35</f>
+        <f>'[2]JPN FCT'!M35</f>
         <v>1.9</v>
       </c>
       <c r="N35" s="19">
-        <f>'[1]JPN FCT'!N35</f>
+        <f>'[2]JPN FCT'!N35</f>
         <v>75</v>
       </c>
       <c r="O35" s="19">
-        <f>'[1]JPN FCT'!O35</f>
+        <f>'[2]JPN FCT'!O35</f>
         <v>74</v>
       </c>
       <c r="P35" s="19">
-        <f>'[1]JPN FCT'!P35</f>
+        <f>'[2]JPN FCT'!P35</f>
         <v>33</v>
       </c>
       <c r="Q35" s="19">
-        <f>'[1]JPN FCT'!Q35</f>
+        <f>'[2]JPN FCT'!Q35</f>
         <v>1200</v>
       </c>
       <c r="R35" s="19">
-        <f>'[1]JPN FCT'!R35</f>
+        <f>'[2]JPN FCT'!R35</f>
         <v>71</v>
       </c>
       <c r="S35" s="19">
-        <f>'[1]JPN FCT'!S35</f>
+        <f>'[2]JPN FCT'!S35</f>
         <v>0.3</v>
       </c>
       <c r="T35" s="19">
-        <f>'[1]JPN FCT'!T35</f>
+        <f>'[2]JPN FCT'!T35</f>
         <v>0.06</v>
       </c>
       <c r="U35" s="19" t="str">
-        <f>'[1]JPN FCT'!U35</f>
+        <f>'[2]JPN FCT'!U35</f>
         <v>(0)</v>
       </c>
     </row>
@@ -99210,71 +99213,71 @@
         <v>470</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f>'[1]INFOOD-WAFCT'!E36</f>
+        <f>'[2]INFOOD-WAFCT'!E36</f>
         <v>INFOOD-WAFCT</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!F36</f>
+        <f>'[2]INFOOD-WAFCT'!F36</f>
         <v>351</v>
       </c>
       <c r="G36" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!G36</f>
+        <f>'[2]INFOOD-WAFCT'!G36</f>
         <v>13.3</v>
       </c>
       <c r="H36" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!H36</f>
+        <f>'[2]INFOOD-WAFCT'!H36</f>
         <v>0</v>
       </c>
       <c r="I36" s="17" t="str">
-        <f>'[1]INFOOD-WAFCT'!I36</f>
+        <f>'[2]INFOOD-WAFCT'!I36</f>
         <v>7.6</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!J36</f>
+        <f>'[2]INFOOD-WAFCT'!J36</f>
         <v>2.4</v>
       </c>
       <c r="K36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!K36</f>
+        <f>'[2]INFOOD-WAFCT'!K36</f>
         <v>65.1</v>
       </c>
       <c r="L36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!L36</f>
+        <f>'[2]INFOOD-WAFCT'!L36</f>
         <v>8.0</v>
       </c>
       <c r="M36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!M36</f>
+        <f>'[2]INFOOD-WAFCT'!M36</f>
         <v>2.4</v>
       </c>
       <c r="N36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!N36</f>
+        <f>'[2]INFOOD-WAFCT'!N36</f>
         <v>180</v>
       </c>
       <c r="O36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!O36</f>
+        <f>'[2]INFOOD-WAFCT'!O36</f>
         <v>184</v>
       </c>
       <c r="P36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!P36</f>
+        <f>'[2]INFOOD-WAFCT'!P36</f>
         <v>429</v>
       </c>
       <c r="Q36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!Q36</f>
+        <f>'[2]INFOOD-WAFCT'!Q36</f>
         <v>427</v>
       </c>
       <c r="R36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!R36</f>
+        <f>'[2]INFOOD-WAFCT'!R36</f>
         <v>12</v>
       </c>
       <c r="S36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!S36</f>
+        <f>'[2]INFOOD-WAFCT'!S36</f>
         <v>3.63</v>
       </c>
       <c r="T36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!T36</f>
+        <f>'[2]INFOOD-WAFCT'!T36</f>
         <v>0.81</v>
       </c>
       <c r="U36" s="16" t="str">
-        <f>'[1]INFOOD-WAFCT'!U36</f>
+        <f>'[2]INFOOD-WAFCT'!U36</f>
         <v>0</v>
       </c>
     </row>
